--- a/docs/perf_analysis.xlsx
+++ b/docs/perf_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmirando/Documents/uni/aca/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmirando/Documents/uni/aca/image-segmentation/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0838C2-680E-CC43-8E07-45C9DEFF5674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8220FBDF-AF69-2243-ADB0-4A0AB3B03280}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0E7B3D4C-F3D6-5C42-B910-87D6E1AF7D42}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" xr2:uid="{0E7B3D4C-F3D6-5C42-B910-87D6E1AF7D42}"/>
   </bookViews>
   <sheets>
     <sheet name="AVAILABLE PARALLELISM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>STUDY OF THE AVAILABLE PARALLELISM</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>update_centers</t>
-  </si>
-  <si>
-    <t>compute_sse</t>
   </si>
   <si>
     <t>update_data</t>
@@ -121,10 +118,10 @@
     <t>PROFILING RESULTS</t>
   </si>
   <si>
-    <t xml:space="preserve">This tables (obtained with the command "gprof -F kmeans_segm serial_prof.out gmon.out") describes the call tree of the kmeans_seg function and reports </t>
+    <t xml:space="preserve">This tables (obtained with the command "gprof -F kmeans_segm serial_prof.out gmon.out" and -pg -static-libgcc flags when compiling) describes </t>
   </si>
   <si>
-    <t>the percentage of the total time that was spent in each of its children.  Note that due to different viewpoints these numbers may NOT add up to 100%.</t>
+    <t xml:space="preserve">the call tree of the kmeans_seg function and reports the percentage of the total time that was spent in each of its children.  </t>
   </si>
 </sst>
 </file>
@@ -214,12 +211,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,6 +222,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6732,8 +6729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF22805F-A6DC-D642-B1E0-D0E301BFF292}">
   <dimension ref="A1:AA119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6757,17 +6754,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -6778,17 +6775,17 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="A3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -6800,46 +6797,46 @@
       <c r="R3" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="7" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-    </row>
-    <row r="7" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -6853,7 +6850,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -6875,7 +6872,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="18">
         <v>4</v>
@@ -7009,7 +7006,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
         <v>1.9E-2</v>
@@ -7041,9 +7038,6 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
@@ -7077,7 +7071,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C13, C15)</f>
@@ -7119,45 +7113,45 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -7226,31 +7220,31 @@
         <v>2</v>
       </c>
       <c r="C26" s="15">
-        <f>1/((1-C$18)+C$18/$B26)</f>
+        <f t="shared" ref="C26:I35" si="1">1/((1-C$18)+C$18/$B26)</f>
         <v>1.6820857863751051</v>
       </c>
       <c r="D26" s="15">
-        <f>1/((1-D$18)+D$18/$B26)</f>
+        <f t="shared" si="1"/>
         <v>1.7809439002671417</v>
       </c>
       <c r="E26" s="15">
-        <f>1/((1-E$18)+E$18/$B26)</f>
+        <f t="shared" si="1"/>
         <v>1.8639328984156571</v>
       </c>
       <c r="F26" s="15">
-        <f>1/((1-F$18)+F$18/$B26)</f>
+        <f t="shared" si="1"/>
         <v>1.9305019305019304</v>
       </c>
       <c r="G26" s="15">
-        <f>1/((1-G$18)+G$18/$B26)</f>
+        <f t="shared" si="1"/>
         <v>1.9627085377821392</v>
       </c>
       <c r="H26" s="15">
-        <f>1/((1-H$18)+H$18/$B26)</f>
+        <f t="shared" si="1"/>
         <v>1.9821605550049557</v>
       </c>
       <c r="I26" s="15">
-        <f>1/((1-I$18)+I$18/$B26)</f>
+        <f t="shared" si="1"/>
         <v>1.9900497512437814</v>
       </c>
     </row>
@@ -7262,31 +7256,31 @@
         <v>3</v>
       </c>
       <c r="C27" s="15">
-        <f>1/((1-C$18)+C$18/$B27)</f>
+        <f t="shared" si="1"/>
         <v>2.1770682148040641</v>
       </c>
       <c r="D27" s="15">
-        <f>1/((1-D$18)+D$18/$B27)</f>
+        <f t="shared" si="1"/>
         <v>2.407704654895666</v>
       </c>
       <c r="E27" s="15">
-        <f>1/((1-E$18)+E$18/$B27)</f>
+        <f t="shared" si="1"/>
         <v>2.6178010471204192</v>
       </c>
       <c r="F27" s="15">
-        <f>1/((1-F$18)+F$18/$B27)</f>
+        <f t="shared" si="1"/>
         <v>2.7985074626865671</v>
       </c>
       <c r="G27" s="15">
-        <f>1/((1-G$18)+G$18/$B27)</f>
+        <f t="shared" si="1"/>
         <v>2.8901734104046239</v>
       </c>
       <c r="H27" s="15">
-        <f>1/((1-H$18)+H$18/$B27)</f>
+        <f t="shared" si="1"/>
         <v>2.9469548133595285</v>
       </c>
       <c r="I27" s="15">
-        <f>1/((1-I$18)+I$18/$B27)</f>
+        <f t="shared" si="1"/>
         <v>2.9702970297029703</v>
       </c>
     </row>
@@ -7298,31 +7292,31 @@
         <v>4</v>
       </c>
       <c r="C28" s="15">
-        <f>1/((1-C$18)+C$18/$B28)</f>
+        <f t="shared" si="1"/>
         <v>2.5526483726866629</v>
       </c>
       <c r="D28" s="15">
-        <f>1/((1-D$18)+D$18/$B28)</f>
+        <f t="shared" si="1"/>
         <v>2.9218407596785974</v>
       </c>
       <c r="E28" s="15">
-        <f>1/((1-E$18)+E$18/$B28)</f>
+        <f t="shared" si="1"/>
         <v>3.2813781788351113</v>
       </c>
       <c r="F28" s="15">
-        <f>1/((1-F$18)+F$18/$B28)</f>
+        <f t="shared" si="1"/>
         <v>3.6101083032490973</v>
       </c>
       <c r="G28" s="15">
-        <f>1/((1-G$18)+G$18/$B28)</f>
+        <f t="shared" si="1"/>
         <v>3.7842951750236522</v>
       </c>
       <c r="H28" s="15">
-        <f>1/((1-H$18)+H$18/$B28)</f>
+        <f t="shared" si="1"/>
         <v>3.8948393378773121</v>
       </c>
       <c r="I28" s="15">
-        <f>1/((1-I$18)+I$18/$B28)</f>
+        <f t="shared" si="1"/>
         <v>3.9408866995073888</v>
       </c>
     </row>
@@ -7334,31 +7328,31 @@
         <v>5</v>
       </c>
       <c r="C29" s="15">
-        <f>1/((1-C$18)+C$18/$B29)</f>
+        <f t="shared" si="1"/>
         <v>2.8473804100227795</v>
       </c>
       <c r="D29" s="15">
-        <f>1/((1-D$18)+D$18/$B29)</f>
+        <f t="shared" si="1"/>
         <v>3.3512064343163539</v>
       </c>
       <c r="E29" s="15">
-        <f>1/((1-E$18)+E$18/$B29)</f>
+        <f t="shared" si="1"/>
         <v>3.8699690402476787</v>
       </c>
       <c r="F29" s="15">
-        <f>1/((1-F$18)+F$18/$B29)</f>
+        <f t="shared" si="1"/>
         <v>4.37062937062937</v>
       </c>
       <c r="G29" s="15">
-        <f>1/((1-G$18)+G$18/$B29)</f>
+        <f t="shared" si="1"/>
         <v>4.6468401486988844</v>
       </c>
       <c r="H29" s="15">
-        <f>1/((1-H$18)+H$18/$B29)</f>
+        <f t="shared" si="1"/>
         <v>4.8262548262548259</v>
       </c>
       <c r="I29" s="15">
-        <f>1/((1-I$18)+I$18/$B29)</f>
+        <f t="shared" si="1"/>
         <v>4.901960784313725</v>
       </c>
     </row>
@@ -7370,31 +7364,31 @@
         <v>6</v>
       </c>
       <c r="C30" s="15">
-        <f>1/((1-C$18)+C$18/$B30)</f>
+        <f t="shared" si="1"/>
         <v>3.0848329048843195</v>
       </c>
       <c r="D30" s="15">
-        <f>1/((1-D$18)+D$18/$B30)</f>
+        <f t="shared" si="1"/>
         <v>3.7151702786377707</v>
       </c>
       <c r="E30" s="15">
-        <f>1/((1-E$18)+E$18/$B30)</f>
+        <f t="shared" si="1"/>
         <v>4.3956043956043969</v>
       </c>
       <c r="F30" s="15">
-        <f>1/((1-F$18)+F$18/$B30)</f>
+        <f t="shared" si="1"/>
         <v>5.0847457627118642</v>
       </c>
       <c r="G30" s="15">
-        <f>1/((1-G$18)+G$18/$B30)</f>
+        <f t="shared" si="1"/>
         <v>5.4794520547945202</v>
       </c>
       <c r="H30" s="15">
-        <f>1/((1-H$18)+H$18/$B30)</f>
+        <f t="shared" si="1"/>
         <v>5.741626794258373</v>
       </c>
       <c r="I30" s="15">
-        <f>1/((1-I$18)+I$18/$B30)</f>
+        <f t="shared" si="1"/>
         <v>5.8536585365853657</v>
       </c>
     </row>
@@ -7406,31 +7400,31 @@
         <v>7</v>
       </c>
       <c r="C31" s="15">
-        <f>1/((1-C$18)+C$18/$B31)</f>
+        <f t="shared" si="1"/>
         <v>3.2802249297094663</v>
       </c>
       <c r="D31" s="15">
-        <f>1/((1-D$18)+D$18/$B31)</f>
+        <f t="shared" si="1"/>
         <v>4.0276179516685851</v>
       </c>
       <c r="E31" s="15">
-        <f>1/((1-E$18)+E$18/$B31)</f>
+        <f t="shared" si="1"/>
         <v>4.8678720445062602</v>
       </c>
       <c r="F31" s="15">
-        <f>1/((1-F$18)+F$18/$B31)</f>
+        <f t="shared" si="1"/>
         <v>5.7565789473684204</v>
       </c>
       <c r="G31" s="15">
-        <f>1/((1-G$18)+G$18/$B31)</f>
+        <f t="shared" si="1"/>
         <v>6.2836624775583472</v>
       </c>
       <c r="H31" s="15">
-        <f>1/((1-H$18)+H$18/$B31)</f>
+        <f t="shared" si="1"/>
         <v>6.6413662239089177</v>
       </c>
       <c r="I31" s="15">
-        <f>1/((1-I$18)+I$18/$B31)</f>
+        <f t="shared" si="1"/>
         <v>6.7961165048543686</v>
       </c>
     </row>
@@ -7442,31 +7436,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="15">
-        <f>1/((1-C$18)+C$18/$B32)</f>
+        <f t="shared" si="1"/>
         <v>3.4438226431338794</v>
       </c>
       <c r="D32" s="15">
-        <f>1/((1-D$18)+D$18/$B32)</f>
+        <f t="shared" si="1"/>
         <v>4.2987641053197203</v>
       </c>
       <c r="E32" s="15">
-        <f>1/((1-E$18)+E$18/$B32)</f>
+        <f t="shared" si="1"/>
         <v>5.2945069490403718</v>
       </c>
       <c r="F32" s="15">
-        <f>1/((1-F$18)+F$18/$B32)</f>
+        <f t="shared" si="1"/>
         <v>6.3897763578274747</v>
       </c>
       <c r="G32" s="15">
-        <f>1/((1-G$18)+G$18/$B32)</f>
+        <f t="shared" si="1"/>
         <v>7.0609002647837595</v>
       </c>
       <c r="H32" s="15">
-        <f>1/((1-H$18)+H$18/$B32)</f>
+        <f t="shared" si="1"/>
         <v>7.5258701787394156</v>
       </c>
       <c r="I32" s="15">
-        <f>1/((1-I$18)+I$18/$B32)</f>
+        <f t="shared" si="1"/>
         <v>7.7294685990338152</v>
       </c>
     </row>
@@ -7478,31 +7472,31 @@
         <v>9</v>
       </c>
       <c r="C33" s="15">
-        <f>1/((1-C$18)+C$18/$B33)</f>
+        <f t="shared" si="1"/>
         <v>3.5828025477707008</v>
       </c>
       <c r="D33" s="15">
-        <f>1/((1-D$18)+D$18/$B33)</f>
+        <f t="shared" si="1"/>
         <v>4.536290322580645</v>
       </c>
       <c r="E33" s="15">
-        <f>1/((1-E$18)+E$18/$B33)</f>
+        <f t="shared" si="1"/>
         <v>5.6818181818181834</v>
       </c>
       <c r="F33" s="15">
-        <f>1/((1-F$18)+F$18/$B33)</f>
+        <f t="shared" si="1"/>
         <v>6.9875776397515521</v>
       </c>
       <c r="G33" s="15">
-        <f>1/((1-G$18)+G$18/$B33)</f>
+        <f t="shared" si="1"/>
         <v>7.8125</v>
       </c>
       <c r="H33" s="15">
-        <f>1/((1-H$18)+H$18/$B33)</f>
+        <f t="shared" si="1"/>
         <v>8.3955223880597014</v>
       </c>
       <c r="I33" s="15">
-        <f>1/((1-I$18)+I$18/$B33)</f>
+        <f t="shared" si="1"/>
         <v>8.6538461538461533</v>
       </c>
     </row>
@@ -7514,31 +7508,31 @@
         <v>10</v>
       </c>
       <c r="C34" s="15">
-        <f>1/((1-C$18)+C$18/$B34)</f>
+        <f t="shared" si="1"/>
         <v>3.702332469455758</v>
       </c>
       <c r="D34" s="15">
-        <f>1/((1-D$18)+D$18/$B34)</f>
+        <f t="shared" si="1"/>
         <v>4.7460844803037494</v>
       </c>
       <c r="E34" s="15">
-        <f>1/((1-E$18)+E$18/$B34)</f>
+        <f t="shared" si="1"/>
         <v>6.0350030175015101</v>
       </c>
       <c r="F34" s="15">
-        <f>1/((1-F$18)+F$18/$B34)</f>
+        <f t="shared" si="1"/>
         <v>7.5528700906344399</v>
       </c>
       <c r="G34" s="15">
-        <f>1/((1-G$18)+G$18/$B34)</f>
+        <f t="shared" si="1"/>
         <v>8.5397096498719041</v>
       </c>
       <c r="H34" s="15">
-        <f>1/((1-H$18)+H$18/$B34)</f>
+        <f t="shared" si="1"/>
         <v>9.250693802035153</v>
       </c>
       <c r="I34" s="15">
-        <f>1/((1-I$18)+I$18/$B34)</f>
+        <f t="shared" si="1"/>
         <v>9.5693779904306204</v>
       </c>
     </row>
@@ -7550,31 +7544,31 @@
         <v>11</v>
       </c>
       <c r="C35" s="15">
-        <f>1/((1-C$18)+C$18/$B35)</f>
+        <f t="shared" si="1"/>
         <v>3.8062283737024227</v>
       </c>
       <c r="D35" s="15">
-        <f>1/((1-D$18)+D$18/$B35)</f>
+        <f t="shared" si="1"/>
         <v>4.9327354260089686</v>
       </c>
       <c r="E35" s="15">
-        <f>1/((1-E$18)+E$18/$B35)</f>
+        <f t="shared" si="1"/>
         <v>6.3583815028901753</v>
       </c>
       <c r="F35" s="15">
-        <f>1/((1-F$18)+F$18/$B35)</f>
+        <f t="shared" si="1"/>
         <v>8.088235294117645</v>
       </c>
       <c r="G35" s="15">
-        <f>1/((1-G$18)+G$18/$B35)</f>
+        <f t="shared" si="1"/>
         <v>9.2436974789915958</v>
       </c>
       <c r="H35" s="15">
-        <f>1/((1-H$18)+H$18/$B35)</f>
+        <f t="shared" si="1"/>
         <v>10.091743119266054</v>
       </c>
       <c r="I35" s="15">
-        <f>1/((1-I$18)+I$18/$B35)</f>
+        <f t="shared" si="1"/>
         <v>10.476190476190476</v>
       </c>
     </row>
@@ -7586,31 +7580,31 @@
         <v>12</v>
       </c>
       <c r="C36" s="15">
-        <f>1/((1-C$18)+C$18/$B36)</f>
+        <f t="shared" ref="C36:I45" si="2">1/((1-C$18)+C$18/$B36)</f>
         <v>3.8973692757388774</v>
       </c>
       <c r="D36" s="15">
-        <f>1/((1-D$18)+D$18/$B36)</f>
+        <f t="shared" si="2"/>
         <v>5.0998725031874201</v>
       </c>
       <c r="E36" s="15">
-        <f>1/((1-E$18)+E$18/$B36)</f>
+        <f t="shared" si="2"/>
         <v>6.6555740432612343</v>
       </c>
       <c r="F36" s="15">
-        <f>1/((1-F$18)+F$18/$B36)</f>
+        <f t="shared" si="2"/>
         <v>8.5959885386819472</v>
       </c>
       <c r="G36" s="15">
-        <f>1/((1-G$18)+G$18/$B36)</f>
+        <f t="shared" si="2"/>
         <v>9.9255583126550846</v>
       </c>
       <c r="H36" s="15">
-        <f>1/((1-H$18)+H$18/$B36)</f>
+        <f t="shared" si="2"/>
         <v>10.91901728844404</v>
       </c>
       <c r="I36" s="15">
-        <f>1/((1-I$18)+I$18/$B36)</f>
+        <f t="shared" si="2"/>
         <v>11.374407582938389</v>
       </c>
     </row>
@@ -7622,31 +7616,31 @@
         <v>13</v>
       </c>
       <c r="C37" s="15">
-        <f>1/((1-C$18)+C$18/$B37)</f>
+        <f t="shared" si="2"/>
         <v>3.9779681762545911</v>
       </c>
       <c r="D37" s="15">
-        <f>1/((1-D$18)+D$18/$B37)</f>
+        <f t="shared" si="2"/>
         <v>5.2504038772213244</v>
       </c>
       <c r="E37" s="15">
-        <f>1/((1-E$18)+E$18/$B37)</f>
+        <f t="shared" si="2"/>
         <v>6.9296375266524546</v>
       </c>
       <c r="F37" s="15">
-        <f>1/((1-F$18)+F$18/$B37)</f>
+        <f t="shared" si="2"/>
         <v>9.0782122905027904</v>
       </c>
       <c r="G37" s="15">
-        <f>1/((1-G$18)+G$18/$B37)</f>
+        <f t="shared" si="2"/>
         <v>10.586319218241041</v>
       </c>
       <c r="H37" s="15">
-        <f>1/((1-H$18)+H$18/$B37)</f>
+        <f t="shared" si="2"/>
         <v>11.732851985559567</v>
       </c>
       <c r="I37" s="15">
-        <f>1/((1-I$18)+I$18/$B37)</f>
+        <f t="shared" si="2"/>
         <v>12.264150943396226</v>
       </c>
     </row>
@@ -7658,31 +7652,31 @@
         <v>14</v>
       </c>
       <c r="C38" s="15">
-        <f>1/((1-C$18)+C$18/$B38)</f>
+        <f t="shared" si="2"/>
         <v>4.0497541220711604</v>
       </c>
       <c r="D38" s="15">
-        <f>1/((1-D$18)+D$18/$B38)</f>
+        <f t="shared" si="2"/>
         <v>5.3866871873797617</v>
       </c>
       <c r="E38" s="15">
-        <f>1/((1-E$18)+E$18/$B38)</f>
+        <f t="shared" si="2"/>
         <v>7.1831708568496682</v>
       </c>
       <c r="F38" s="15">
-        <f>1/((1-F$18)+F$18/$B38)</f>
+        <f t="shared" si="2"/>
         <v>9.5367847411444124</v>
       </c>
       <c r="G38" s="15">
-        <f>1/((1-G$18)+G$18/$B38)</f>
+        <f t="shared" si="2"/>
         <v>11.22694466720128</v>
       </c>
       <c r="H38" s="15">
-        <f>1/((1-H$18)+H$18/$B38)</f>
+        <f t="shared" si="2"/>
         <v>12.533572068039391</v>
       </c>
       <c r="I38" s="15">
-        <f>1/((1-I$18)+I$18/$B38)</f>
+        <f t="shared" si="2"/>
         <v>13.145539906103284</v>
       </c>
     </row>
@@ -7694,31 +7688,31 @@
         <v>15</v>
       </c>
       <c r="C39" s="15">
-        <f>1/((1-C$18)+C$18/$B39)</f>
+        <f t="shared" si="2"/>
         <v>4.1140976412506864</v>
       </c>
       <c r="D39" s="15">
-        <f>1/((1-D$18)+D$18/$B39)</f>
+        <f t="shared" si="2"/>
         <v>5.5106539309331373</v>
       </c>
       <c r="E39" s="15">
-        <f>1/((1-E$18)+E$18/$B39)</f>
+        <f t="shared" si="2"/>
         <v>7.4183976261127622</v>
       </c>
       <c r="F39" s="15">
-        <f>1/((1-F$18)+F$18/$B39)</f>
+        <f t="shared" si="2"/>
         <v>9.9734042553191458</v>
       </c>
       <c r="G39" s="15">
-        <f>1/((1-G$18)+G$18/$B39)</f>
+        <f t="shared" si="2"/>
         <v>11.848341232227487</v>
       </c>
       <c r="H39" s="15">
-        <f>1/((1-H$18)+H$18/$B39)</f>
+        <f t="shared" si="2"/>
         <v>13.321492007104794</v>
       </c>
       <c r="I39" s="15">
-        <f>1/((1-I$18)+I$18/$B39)</f>
+        <f t="shared" si="2"/>
         <v>14.018691588785048</v>
       </c>
     </row>
@@ -7730,31 +7724,31 @@
         <v>16</v>
       </c>
       <c r="C40" s="15">
-        <f>1/((1-C$18)+C$18/$B40)</f>
+        <f t="shared" si="2"/>
         <v>4.1720990873533257</v>
       </c>
       <c r="D40" s="15">
-        <f>1/((1-D$18)+D$18/$B40)</f>
+        <f t="shared" si="2"/>
         <v>5.6239015817223201</v>
       </c>
       <c r="E40" s="15">
-        <f>1/((1-E$18)+E$18/$B40)</f>
+        <f t="shared" si="2"/>
         <v>7.6372315035799545</v>
       </c>
       <c r="F40" s="15">
-        <f>1/((1-F$18)+F$18/$B40)</f>
+        <f t="shared" si="2"/>
         <v>10.389610389610386</v>
       </c>
       <c r="G40" s="15">
-        <f>1/((1-G$18)+G$18/$B40)</f>
+        <f t="shared" si="2"/>
         <v>12.451361867704279</v>
       </c>
       <c r="H40" s="15">
-        <f>1/((1-H$18)+H$18/$B40)</f>
+        <f t="shared" si="2"/>
         <v>14.096916299559469</v>
       </c>
       <c r="I40" s="15">
-        <f>1/((1-I$18)+I$18/$B40)</f>
+        <f t="shared" si="2"/>
         <v>14.883720930232556</v>
       </c>
     </row>
@@ -7766,31 +7760,31 @@
         <v>17</v>
       </c>
       <c r="C41" s="15">
-        <f>1/((1-C$18)+C$18/$B41)</f>
+        <f t="shared" si="2"/>
         <v>4.2246520874751496</v>
       </c>
       <c r="D41" s="15">
-        <f>1/((1-D$18)+D$18/$B41)</f>
+        <f t="shared" si="2"/>
         <v>5.7277628032345014</v>
       </c>
       <c r="E41" s="15">
-        <f>1/((1-E$18)+E$18/$B41)</f>
+        <f t="shared" si="2"/>
         <v>7.8413284132841357</v>
       </c>
       <c r="F41" s="15">
-        <f>1/((1-F$18)+F$18/$B41)</f>
+        <f t="shared" si="2"/>
         <v>10.786802030456849</v>
       </c>
       <c r="G41" s="15">
-        <f>1/((1-G$18)+G$18/$B41)</f>
+        <f t="shared" si="2"/>
         <v>13.036809815950917</v>
       </c>
       <c r="H41" s="15">
-        <f>1/((1-H$18)+H$18/$B41)</f>
+        <f t="shared" si="2"/>
         <v>14.860139860139856</v>
       </c>
       <c r="I41" s="15">
-        <f>1/((1-I$18)+I$18/$B41)</f>
+        <f t="shared" si="2"/>
         <v>15.740740740740739</v>
       </c>
     </row>
@@ -7802,31 +7796,31 @@
         <v>18</v>
       </c>
       <c r="C42" s="15">
-        <f>1/((1-C$18)+C$18/$B42)</f>
+        <f t="shared" si="2"/>
         <v>4.2724899121765967</v>
       </c>
       <c r="D42" s="15">
-        <f>1/((1-D$18)+D$18/$B42)</f>
+        <f t="shared" si="2"/>
         <v>5.8233581365253961</v>
       </c>
       <c r="E42" s="15">
-        <f>1/((1-E$18)+E$18/$B42)</f>
+        <f t="shared" si="2"/>
         <v>8.0321285140562271</v>
       </c>
       <c r="F42" s="15">
-        <f>1/((1-F$18)+F$18/$B42)</f>
+        <f t="shared" si="2"/>
         <v>11.16625310173697</v>
       </c>
       <c r="G42" s="15">
-        <f>1/((1-G$18)+G$18/$B42)</f>
+        <f t="shared" si="2"/>
         <v>13.605442176870746</v>
       </c>
       <c r="H42" s="15">
-        <f>1/((1-H$18)+H$18/$B42)</f>
+        <f t="shared" si="2"/>
         <v>15.611448395490024</v>
       </c>
       <c r="I42" s="15">
-        <f>1/((1-I$18)+I$18/$B42)</f>
+        <f t="shared" si="2"/>
         <v>16.589861751152071</v>
       </c>
     </row>
@@ -7838,31 +7832,31 @@
         <v>19</v>
       </c>
       <c r="C43" s="15">
-        <f>1/((1-C$18)+C$18/$B43)</f>
+        <f t="shared" si="2"/>
         <v>4.3162199000454349</v>
       </c>
       <c r="D43" s="15">
-        <f>1/((1-D$18)+D$18/$B43)</f>
+        <f t="shared" si="2"/>
         <v>5.9116365899191035</v>
       </c>
       <c r="E43" s="15">
-        <f>1/((1-E$18)+E$18/$B43)</f>
+        <f t="shared" si="2"/>
         <v>8.2108902333621465</v>
       </c>
       <c r="F43" s="15">
-        <f>1/((1-F$18)+F$18/$B43)</f>
+        <f t="shared" si="2"/>
         <v>11.529126213592228</v>
       </c>
       <c r="G43" s="15">
-        <f>1/((1-G$18)+G$18/$B43)</f>
+        <f t="shared" si="2"/>
         <v>14.157973174366614</v>
       </c>
       <c r="H43" s="15">
-        <f>1/((1-H$18)+H$18/$B43)</f>
+        <f t="shared" si="2"/>
         <v>16.351118760757313</v>
       </c>
       <c r="I43" s="15">
-        <f>1/((1-I$18)+I$18/$B43)</f>
+        <f t="shared" si="2"/>
         <v>17.431192660550458</v>
       </c>
     </row>
@@ -7874,31 +7868,31 @@
         <v>20</v>
       </c>
       <c r="C44" s="15">
-        <f>1/((1-C$18)+C$18/$B44)</f>
+        <f t="shared" si="2"/>
         <v>4.3563493792202141</v>
       </c>
       <c r="D44" s="15">
-        <f>1/((1-D$18)+D$18/$B44)</f>
+        <f t="shared" si="2"/>
         <v>5.9934072520227746</v>
       </c>
       <c r="E44" s="15">
-        <f>1/((1-E$18)+E$18/$B44)</f>
+        <f t="shared" si="2"/>
         <v>8.3787180561374139</v>
       </c>
       <c r="F44" s="15">
-        <f>1/((1-F$18)+F$18/$B44)</f>
+        <f t="shared" si="2"/>
         <v>11.876484560570068</v>
       </c>
       <c r="G44" s="15">
-        <f>1/((1-G$18)+G$18/$B44)</f>
+        <f t="shared" si="2"/>
         <v>14.695077149155031</v>
       </c>
       <c r="H44" s="15">
-        <f>1/((1-H$18)+H$18/$B44)</f>
+        <f t="shared" si="2"/>
         <v>17.079419299743808</v>
       </c>
       <c r="I44" s="15">
-        <f>1/((1-I$18)+I$18/$B44)</f>
+        <f t="shared" si="2"/>
         <v>18.264840182648399</v>
       </c>
     </row>
@@ -7910,31 +7904,31 @@
         <v>21</v>
       </c>
       <c r="C45" s="15">
-        <f>1/((1-C$18)+C$18/$B45)</f>
+        <f t="shared" si="2"/>
         <v>4.3933054393305451</v>
       </c>
       <c r="D45" s="15">
-        <f>1/((1-D$18)+D$18/$B45)</f>
+        <f t="shared" si="2"/>
         <v>6.0693641618497107</v>
       </c>
       <c r="E45" s="15">
-        <f>1/((1-E$18)+E$18/$B45)</f>
+        <f t="shared" si="2"/>
         <v>8.5365853658536608</v>
       </c>
       <c r="F45" s="15">
-        <f>1/((1-F$18)+F$18/$B45)</f>
+        <f t="shared" si="2"/>
         <v>12.20930232558139</v>
       </c>
       <c r="G45" s="15">
-        <f>1/((1-G$18)+G$18/$B45)</f>
+        <f t="shared" si="2"/>
         <v>15.217391304347824</v>
       </c>
       <c r="H45" s="15">
-        <f>1/((1-H$18)+H$18/$B45)</f>
+        <f t="shared" si="2"/>
         <v>17.796610169491522</v>
       </c>
       <c r="I45" s="15">
-        <f>1/((1-I$18)+I$18/$B45)</f>
+        <f t="shared" si="2"/>
         <v>19.09090909090909</v>
       </c>
     </row>
@@ -7946,31 +7940,31 @@
         <v>22</v>
       </c>
       <c r="C46" s="15">
-        <f>1/((1-C$18)+C$18/$B46)</f>
+        <f t="shared" ref="C46:I56" si="3">1/((1-C$18)+C$18/$B46)</f>
         <v>4.4274501911853497</v>
       </c>
       <c r="D46" s="15">
-        <f>1/((1-D$18)+D$18/$B46)</f>
+        <f t="shared" si="3"/>
         <v>6.1401060563773369</v>
       </c>
       <c r="E46" s="15">
-        <f>1/((1-E$18)+E$18/$B46)</f>
+        <f t="shared" si="3"/>
         <v>8.6853533359652619</v>
       </c>
       <c r="F46" s="15">
-        <f>1/((1-F$18)+F$18/$B46)</f>
+        <f t="shared" si="3"/>
         <v>12.528473804100225</v>
       </c>
       <c r="G46" s="15">
-        <f>1/((1-G$18)+G$18/$B46)</f>
+        <f t="shared" si="3"/>
         <v>15.725518227305212</v>
       </c>
       <c r="H46" s="15">
-        <f>1/((1-H$18)+H$18/$B46)</f>
+        <f t="shared" si="3"/>
         <v>18.502943650126152</v>
       </c>
       <c r="I46" s="15">
-        <f>1/((1-I$18)+I$18/$B46)</f>
+        <f t="shared" si="3"/>
         <v>19.909502262443436</v>
       </c>
     </row>
@@ -7982,31 +7976,31 @@
         <v>23</v>
       </c>
       <c r="C47" s="15">
-        <f>1/((1-C$18)+C$18/$B47)</f>
+        <f t="shared" si="3"/>
         <v>4.4590926715781318</v>
       </c>
       <c r="D47" s="15">
-        <f>1/((1-D$18)+D$18/$B47)</f>
+        <f t="shared" si="3"/>
         <v>6.2061521856449007</v>
       </c>
       <c r="E47" s="15">
-        <f>1/((1-E$18)+E$18/$B47)</f>
+        <f t="shared" si="3"/>
         <v>8.8257866462010774</v>
       </c>
       <c r="F47" s="15">
-        <f>1/((1-F$18)+F$18/$B47)</f>
+        <f t="shared" si="3"/>
         <v>12.834821428571425</v>
       </c>
       <c r="G47" s="15">
-        <f>1/((1-G$18)+G$18/$B47)</f>
+        <f t="shared" si="3"/>
         <v>16.220028208744708</v>
       </c>
       <c r="H47" s="15">
-        <f>1/((1-H$18)+H$18/$B47)</f>
+        <f t="shared" si="3"/>
         <v>19.198664440734557</v>
       </c>
       <c r="I47" s="15">
-        <f>1/((1-I$18)+I$18/$B47)</f>
+        <f t="shared" si="3"/>
         <v>20.720720720720717</v>
       </c>
     </row>
@@ -8018,31 +8012,31 @@
         <v>24</v>
       </c>
       <c r="C48" s="15">
-        <f>1/((1-C$18)+C$18/$B48)</f>
+        <f t="shared" si="3"/>
         <v>4.4884982233027877</v>
       </c>
       <c r="D48" s="15">
-        <f>1/((1-D$18)+D$18/$B48)</f>
+        <f t="shared" si="3"/>
         <v>6.2679550796552626</v>
       </c>
       <c r="E48" s="15">
-        <f>1/((1-E$18)+E$18/$B48)</f>
+        <f t="shared" si="3"/>
         <v>8.9585666293393107</v>
       </c>
       <c r="F48" s="15">
-        <f>1/((1-F$18)+F$18/$B48)</f>
+        <f t="shared" si="3"/>
         <v>13.129102844638947</v>
       </c>
       <c r="G48" s="15">
-        <f>1/((1-G$18)+G$18/$B48)</f>
+        <f t="shared" si="3"/>
         <v>16.701461377870558</v>
       </c>
       <c r="H48" s="15">
-        <f>1/((1-H$18)+H$18/$B48)</f>
+        <f t="shared" si="3"/>
         <v>19.884009942004969</v>
       </c>
       <c r="I48" s="15">
-        <f>1/((1-I$18)+I$18/$B48)</f>
+        <f t="shared" si="3"/>
         <v>21.524663677130043</v>
       </c>
     </row>
@@ -8054,31 +8048,31 @@
         <v>25</v>
       </c>
       <c r="C49" s="15">
-        <f>1/((1-C$18)+C$18/$B49)</f>
+        <f t="shared" si="3"/>
         <v>4.5158959537572265</v>
       </c>
       <c r="D49" s="15">
-        <f>1/((1-D$18)+D$18/$B49)</f>
+        <f t="shared" si="3"/>
         <v>6.3259109311740893</v>
       </c>
       <c r="E49" s="15">
-        <f>1/((1-E$18)+E$18/$B49)</f>
+        <f t="shared" si="3"/>
         <v>9.0843023255813993</v>
       </c>
       <c r="F49" s="15">
-        <f>1/((1-F$18)+F$18/$B49)</f>
+        <f t="shared" si="3"/>
         <v>13.412017167381968</v>
       </c>
       <c r="G49" s="15">
-        <f>1/((1-G$18)+G$18/$B49)</f>
+        <f t="shared" si="3"/>
         <v>17.170329670329668</v>
       </c>
       <c r="H49" s="15">
-        <f>1/((1-H$18)+H$18/$B49)</f>
+        <f t="shared" si="3"/>
         <v>20.559210526315784</v>
       </c>
       <c r="I49" s="15">
-        <f>1/((1-I$18)+I$18/$B49)</f>
+        <f t="shared" si="3"/>
         <v>22.321428571428569</v>
       </c>
     </row>
@@ -8090,31 +8084,31 @@
         <v>26</v>
       </c>
       <c r="C50" s="15">
-        <f>1/((1-C$18)+C$18/$B50)</f>
+        <f t="shared" si="3"/>
         <v>4.5414847161572061</v>
       </c>
       <c r="D50" s="15">
-        <f>1/((1-D$18)+D$18/$B50)</f>
+        <f t="shared" si="3"/>
         <v>6.3803680981595097</v>
       </c>
       <c r="E50" s="15">
-        <f>1/((1-E$18)+E$18/$B50)</f>
+        <f t="shared" si="3"/>
         <v>9.2035398230088532</v>
       </c>
       <c r="F50" s="15">
-        <f>1/((1-F$18)+F$18/$B50)</f>
+        <f t="shared" si="3"/>
         <v>13.684210526315784</v>
       </c>
       <c r="G50" s="15">
-        <f>1/((1-G$18)+G$18/$B50)</f>
+        <f t="shared" si="3"/>
         <v>17.627118644067792</v>
       </c>
       <c r="H50" s="15">
-        <f>1/((1-H$18)+H$18/$B50)</f>
+        <f t="shared" si="3"/>
         <v>21.224489795918366</v>
       </c>
       <c r="I50" s="15">
-        <f>1/((1-I$18)+I$18/$B50)</f>
+        <f t="shared" si="3"/>
         <v>23.111111111111107</v>
       </c>
     </row>
@@ -8126,31 +8120,31 @@
         <v>27</v>
       </c>
       <c r="C51" s="15">
-        <f>1/((1-C$18)+C$18/$B51)</f>
+        <f t="shared" si="3"/>
         <v>4.5654379438620234</v>
       </c>
       <c r="D51" s="15">
-        <f>1/((1-D$18)+D$18/$B51)</f>
+        <f t="shared" si="3"/>
         <v>6.4316341114816584</v>
       </c>
       <c r="E51" s="15">
-        <f>1/((1-E$18)+E$18/$B51)</f>
+        <f t="shared" si="3"/>
         <v>9.3167701863354075</v>
       </c>
       <c r="F51" s="15">
-        <f>1/((1-F$18)+F$18/$B51)</f>
+        <f t="shared" si="3"/>
         <v>13.946280991735529</v>
       </c>
       <c r="G51" s="15">
-        <f>1/((1-G$18)+G$18/$B51)</f>
+        <f t="shared" si="3"/>
         <v>18.0722891566265</v>
       </c>
       <c r="H51" s="15">
-        <f>1/((1-H$18)+H$18/$B51)</f>
+        <f t="shared" si="3"/>
         <v>21.880064829821713</v>
       </c>
       <c r="I51" s="15">
-        <f>1/((1-I$18)+I$18/$B51)</f>
+        <f t="shared" si="3"/>
         <v>23.89380530973451</v>
       </c>
     </row>
@@ -8162,31 +8156,31 @@
         <v>28</v>
       </c>
       <c r="C52" s="15">
-        <f>1/((1-C$18)+C$18/$B52)</f>
+        <f t="shared" si="3"/>
         <v>4.5879075864329026</v>
       </c>
       <c r="D52" s="15">
-        <f>1/((1-D$18)+D$18/$B52)</f>
+        <f t="shared" si="3"/>
         <v>6.4799814857671842</v>
       </c>
       <c r="E52" s="15">
-        <f>1/((1-E$18)+E$18/$B52)</f>
+        <f t="shared" si="3"/>
         <v>9.4244362167620359</v>
       </c>
       <c r="F52" s="15">
-        <f>1/((1-F$18)+F$18/$B52)</f>
+        <f t="shared" si="3"/>
         <v>14.198782961460441</v>
       </c>
       <c r="G52" s="15">
-        <f>1/((1-G$18)+G$18/$B52)</f>
+        <f t="shared" si="3"/>
         <v>18.506278916060801</v>
       </c>
       <c r="H52" s="15">
-        <f>1/((1-H$18)+H$18/$B52)</f>
+        <f t="shared" si="3"/>
         <v>22.526146419951726</v>
       </c>
       <c r="I52" s="15">
-        <f>1/((1-I$18)+I$18/$B52)</f>
+        <f t="shared" si="3"/>
         <v>24.669603524229071</v>
       </c>
     </row>
@@ -8198,31 +8192,31 @@
         <v>29</v>
       </c>
       <c r="C53" s="15">
-        <f>1/((1-C$18)+C$18/$B53)</f>
+        <f t="shared" si="3"/>
         <v>4.6090273363000653</v>
       </c>
       <c r="D53" s="15">
-        <f>1/((1-D$18)+D$18/$B53)</f>
+        <f t="shared" si="3"/>
         <v>6.525652565256526</v>
       </c>
       <c r="E53" s="15">
-        <f>1/((1-E$18)+E$18/$B53)</f>
+        <f t="shared" si="3"/>
         <v>9.5269382391590067</v>
       </c>
       <c r="F53" s="15">
-        <f>1/((1-F$18)+F$18/$B53)</f>
+        <f t="shared" si="3"/>
         <v>14.442231075697206</v>
       </c>
       <c r="G53" s="15">
-        <f>1/((1-G$18)+G$18/$B53)</f>
+        <f t="shared" si="3"/>
         <v>18.929503916449082</v>
       </c>
       <c r="H53" s="15">
-        <f>1/((1-H$18)+H$18/$B53)</f>
+        <f t="shared" si="3"/>
         <v>23.162939297124595</v>
       </c>
       <c r="I53" s="15">
-        <f>1/((1-I$18)+I$18/$B53)</f>
+        <f t="shared" si="3"/>
         <v>25.438596491228068</v>
       </c>
     </row>
@@ -8234,31 +8228,31 @@
         <v>30</v>
       </c>
       <c r="C54" s="15">
-        <f>1/((1-C$18)+C$18/$B54)</f>
+        <f t="shared" si="3"/>
         <v>4.6289152908501787</v>
       </c>
       <c r="D54" s="15">
-        <f>1/((1-D$18)+D$18/$B54)</f>
+        <f t="shared" si="3"/>
         <v>6.5688635865995186</v>
       </c>
       <c r="E54" s="15">
-        <f>1/((1-E$18)+E$18/$B54)</f>
+        <f t="shared" si="3"/>
         <v>9.6246390760346525</v>
       </c>
       <c r="F54" s="15">
-        <f>1/((1-F$18)+F$18/$B54)</f>
+        <f t="shared" si="3"/>
         <v>14.677103718199602</v>
       </c>
       <c r="G54" s="15">
-        <f>1/((1-G$18)+G$18/$B54)</f>
+        <f t="shared" si="3"/>
         <v>19.342359767891676</v>
       </c>
       <c r="H54" s="15">
-        <f>1/((1-H$18)+H$18/$B54)</f>
+        <f t="shared" si="3"/>
         <v>23.790642347343375</v>
       </c>
       <c r="I54" s="15">
-        <f>1/((1-I$18)+I$18/$B54)</f>
+        <f t="shared" si="3"/>
         <v>26.200873362445414</v>
       </c>
     </row>
@@ -8270,31 +8264,31 @@
         <v>31</v>
       </c>
       <c r="C55" s="15">
-        <f>1/((1-C$18)+C$18/$B55)</f>
+        <f t="shared" si="3"/>
         <v>4.6476761619190423</v>
       </c>
       <c r="D55" s="15">
-        <f>1/((1-D$18)+D$18/$B55)</f>
+        <f t="shared" si="3"/>
         <v>6.6098081023454167</v>
       </c>
       <c r="E55" s="15">
-        <f>1/((1-E$18)+E$18/$B55)</f>
+        <f t="shared" si="3"/>
         <v>9.7178683385579969</v>
       </c>
       <c r="F55" s="15">
-        <f>1/((1-F$18)+F$18/$B55)</f>
+        <f t="shared" si="3"/>
         <v>14.903846153846146</v>
       </c>
       <c r="G55" s="15">
-        <f>1/((1-G$18)+G$18/$B55)</f>
+        <f t="shared" si="3"/>
         <v>19.745222929936297</v>
       </c>
       <c r="H55" s="15">
-        <f>1/((1-H$18)+H$18/$B55)</f>
+        <f t="shared" si="3"/>
         <v>24.409448818897634</v>
       </c>
       <c r="I55" s="15">
-        <f>1/((1-I$18)+I$18/$B55)</f>
+        <f t="shared" si="3"/>
         <v>26.95652173913043</v>
       </c>
     </row>
@@ -8306,31 +8300,31 @@
         <v>32</v>
       </c>
       <c r="C56" s="15">
-        <f>1/((1-C$18)+C$18/$B56)</f>
+        <f t="shared" si="3"/>
         <v>4.6654031199883379</v>
       </c>
       <c r="D56" s="15">
-        <f>1/((1-D$18)+D$18/$B56)</f>
+        <f t="shared" si="3"/>
         <v>6.6486598794930405</v>
       </c>
       <c r="E56" s="15">
-        <f>1/((1-E$18)+E$18/$B56)</f>
+        <f t="shared" si="3"/>
         <v>9.8069261415874998</v>
       </c>
       <c r="F56" s="15">
-        <f>1/((1-F$18)+F$18/$B56)</f>
+        <f t="shared" si="3"/>
         <v>15.122873345935721</v>
       </c>
       <c r="G56" s="15">
-        <f>1/((1-G$18)+G$18/$B56)</f>
+        <f t="shared" si="3"/>
         <v>20.138451856513527</v>
       </c>
       <c r="H56" s="15">
-        <f>1/((1-H$18)+H$18/$B56)</f>
+        <f t="shared" si="3"/>
         <v>25.019546520719306</v>
       </c>
       <c r="I56" s="15">
-        <f>1/((1-I$18)+I$18/$B56)</f>
+        <f t="shared" si="3"/>
         <v>27.705627705627698</v>
       </c>
     </row>
@@ -8345,35 +8339,35 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="9">
-        <f>1/((1-C$18))</f>
+        <f t="shared" ref="C58:I58" si="4">1/((1-C$18))</f>
         <v>5.2910052910052929</v>
       </c>
       <c r="D58" s="9">
-        <f>1/((1-D$18))</f>
+        <f t="shared" si="4"/>
         <v>8.1300813008130088</v>
       </c>
       <c r="E58" s="9">
-        <f>1/((1-E$18))</f>
+        <f t="shared" si="4"/>
         <v>13.69863013698631</v>
       </c>
       <c r="F58" s="9">
-        <f>1/((1-F$18))</f>
+        <f t="shared" si="4"/>
         <v>27.777777777777754</v>
       </c>
       <c r="G58" s="9">
-        <f>1/((1-G$18))</f>
+        <f t="shared" si="4"/>
         <v>52.631578947368375</v>
       </c>
       <c r="H58" s="9">
-        <f>1/((1-H$18))</f>
+        <f t="shared" si="4"/>
         <v>111.11111111111101</v>
       </c>
       <c r="I58" s="9">
-        <f>1/((1-I$18))</f>
+        <f t="shared" si="4"/>
         <v>199.99999999999983</v>
       </c>
     </row>
@@ -8976,17 +8970,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="A1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -8997,17 +8991,17 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="A3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -9018,17 +9012,17 @@
       <c r="Q3" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="A5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -9040,13 +9034,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="18">
         <v>4</v>
@@ -9067,15 +9061,15 @@
         <v>128</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -9090,7 +9084,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="15">
         <v>0.25424200000000002</v>
@@ -9133,7 +9127,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
@@ -9290,57 +9284,57 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="A17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>27</v>
+      <c r="A19" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -9353,36 +9347,36 @@
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="A21" s="20">
         <v>0</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="21">
         <v>0</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="21">
         <v>0</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <v>0</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>0</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>0</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="21">
         <v>0</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="21">
         <v>0</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="A22" s="20">
         <v>1</v>
       </c>
       <c r="B22">
@@ -9418,38 +9412,38 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="A23" s="20">
         <v>2</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>2</v>
       </c>
       <c r="C23" s="16">
-        <f>C$9/C13</f>
+        <f t="shared" ref="C23:I25" si="0">C$9/C13</f>
         <v>1.6124944504344518</v>
       </c>
       <c r="D23" s="16">
-        <f>D$9/D13</f>
+        <f t="shared" si="0"/>
         <v>1.7526721046009288</v>
       </c>
       <c r="E23" s="16">
-        <f>E$9/E13</f>
+        <f t="shared" si="0"/>
         <v>1.7969474693497847</v>
       </c>
       <c r="F23" s="16">
-        <f>F$9/F13</f>
+        <f t="shared" si="0"/>
         <v>1.8192629449357207</v>
       </c>
       <c r="G23" s="16">
-        <f>G$9/G13</f>
+        <f t="shared" si="0"/>
         <v>1.8470419390675834</v>
       </c>
       <c r="H23" s="16">
-        <f>H$9/H13</f>
+        <f t="shared" si="0"/>
         <v>1.8570452467624747</v>
       </c>
       <c r="I23" s="17">
-        <f>I$9/I13</f>
+        <f t="shared" si="0"/>
         <v>1.8576124769216718</v>
       </c>
       <c r="K23" s="3"/>
@@ -9461,38 +9455,38 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
+      <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <v>3</v>
       </c>
       <c r="C24" s="16">
-        <f>C$9/C14</f>
+        <f t="shared" si="0"/>
         <v>1.9115221232284501</v>
       </c>
       <c r="D24" s="16">
-        <f>D$9/D14</f>
+        <f t="shared" si="0"/>
         <v>1.9289026834975611</v>
       </c>
       <c r="E24" s="16">
-        <f>E$9/E14</f>
+        <f t="shared" si="0"/>
         <v>1.9430291121365615</v>
       </c>
       <c r="F24" s="16">
-        <f>F$9/F14</f>
+        <f t="shared" si="0"/>
         <v>1.9553675244678614</v>
       </c>
       <c r="G24" s="16">
-        <f>G$9/G14</f>
+        <f t="shared" si="0"/>
         <v>1.966174867928963</v>
       </c>
       <c r="H24" s="16">
-        <f>H$9/H14</f>
+        <f t="shared" si="0"/>
         <v>1.9833765154827403</v>
       </c>
       <c r="I24" s="16">
-        <f>I$9/I14</f>
+        <f t="shared" si="0"/>
         <v>2.0004870498052774</v>
       </c>
       <c r="K24" s="3"/>
@@ -9504,38 +9498,38 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+      <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <v>4</v>
       </c>
       <c r="C25" s="16">
-        <f>C$9/C15</f>
+        <f t="shared" si="0"/>
         <v>2.06236362014001</v>
       </c>
       <c r="D25" s="16">
-        <f>D$9/D15</f>
+        <f t="shared" si="0"/>
         <v>2.0980302764232035</v>
       </c>
       <c r="E25" s="16">
-        <f>E$9/E15</f>
+        <f t="shared" si="0"/>
         <v>2.1201109587172264</v>
       </c>
       <c r="F25" s="16">
-        <f>F$9/F15</f>
+        <f t="shared" si="0"/>
         <v>2.1481088235338253</v>
       </c>
       <c r="G25" s="16">
-        <f>G$9/G15</f>
+        <f t="shared" si="0"/>
         <v>2.1978621038413384</v>
       </c>
       <c r="H25" s="16">
-        <f>H$9/H15</f>
+        <f t="shared" si="0"/>
         <v>2.2071564200095337</v>
       </c>
       <c r="I25" s="17">
-        <f>I$9/I15</f>
+        <f t="shared" si="0"/>
         <v>2.2101099693070592</v>
       </c>
       <c r="K25" s="3"/>
@@ -9583,17 +9577,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="A1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -9604,17 +9598,17 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="A3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -9625,17 +9619,17 @@
       <c r="Q3" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="A5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -9647,12 +9641,12 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="18">
         <v>4</v>
@@ -9675,13 +9669,13 @@
       <c r="I7" s="18">
         <v>256</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -9696,7 +9690,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="15">
         <v>0.48933100000000002</v>
@@ -9739,7 +9733,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
@@ -9959,13 +9953,13 @@
       <c r="I18" s="15">
         <v>20.886236</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
@@ -10152,508 +10146,508 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="A26" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>27</v>
+      <c r="A28" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+      <c r="A30" s="20">
         <v>0</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="21">
         <v>0</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="21">
         <v>0</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="21">
         <v>0</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="21">
         <v>0</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="21">
         <v>0</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="21">
         <v>0</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="21">
         <v>0</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="22">
+      <c r="A31" s="20">
         <v>2</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="20">
         <v>2</v>
       </c>
       <c r="C31" s="15">
-        <f>C$9/C13</f>
+        <f t="shared" ref="C31:I42" si="0">C$9/C13</f>
         <v>2.0049865400295834</v>
       </c>
       <c r="D31" s="15">
-        <f>D$9/D13</f>
+        <f t="shared" si="0"/>
         <v>1.9812981593028269</v>
       </c>
       <c r="E31" s="15">
-        <f>E$9/E13</f>
+        <f t="shared" si="0"/>
         <v>1.9632514575169644</v>
       </c>
       <c r="F31" s="15">
-        <f>F$9/F13</f>
+        <f t="shared" si="0"/>
         <v>1.978947349642403</v>
       </c>
       <c r="G31" s="15">
-        <f>G$9/G13</f>
+        <f t="shared" si="0"/>
         <v>1.9739976849927738</v>
       </c>
       <c r="H31" s="15">
-        <f>H$9/H13</f>
+        <f t="shared" si="0"/>
         <v>1.9746604205076892</v>
       </c>
       <c r="I31" s="15">
-        <f>I$9/I13</f>
+        <f t="shared" si="0"/>
         <v>1.9910831123710535</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="22">
+      <c r="A32" s="20">
         <v>4</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="20">
         <v>4</v>
       </c>
       <c r="C32" s="15">
-        <f>C$9/C14</f>
+        <f t="shared" si="0"/>
         <v>3.6161292944819281</v>
       </c>
       <c r="D32" s="15">
-        <f>D$9/D14</f>
+        <f t="shared" si="0"/>
         <v>3.8920559498033582</v>
       </c>
       <c r="E32" s="15">
-        <f>E$9/E14</f>
+        <f t="shared" si="0"/>
         <v>3.8966456980909738</v>
       </c>
       <c r="F32" s="15">
-        <f>F$9/F14</f>
+        <f t="shared" si="0"/>
         <v>3.9305432170436059</v>
       </c>
       <c r="G32" s="15">
-        <f>G$9/G14</f>
+        <f t="shared" si="0"/>
         <v>3.8039301984728051</v>
       </c>
       <c r="H32" s="15">
-        <f>H$9/H14</f>
+        <f t="shared" si="0"/>
         <v>3.9406289893429927</v>
       </c>
       <c r="I32" s="15">
-        <f>I$9/I14</f>
+        <f t="shared" si="0"/>
         <v>3.939027393367474</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="22">
+      <c r="A33" s="20">
         <v>6</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="20">
         <v>6</v>
       </c>
       <c r="C33" s="15">
-        <f>C$9/C15</f>
+        <f t="shared" si="0"/>
         <v>5.1447871982504836</v>
       </c>
       <c r="D33" s="15">
-        <f>D$9/D15</f>
+        <f t="shared" si="0"/>
         <v>5.7371619647140477</v>
       </c>
       <c r="E33" s="15">
-        <f>E$9/E15</f>
+        <f t="shared" si="0"/>
         <v>5.780548849954255</v>
       </c>
       <c r="F33" s="15">
-        <f>F$9/F15</f>
+        <f t="shared" si="0"/>
         <v>5.8317176364703087</v>
       </c>
       <c r="G33" s="15">
-        <f>G$9/G15</f>
+        <f t="shared" si="0"/>
         <v>5.6222777352139586</v>
       </c>
       <c r="H33" s="15">
-        <f>H$9/H15</f>
+        <f t="shared" si="0"/>
         <v>5.8704532937142178</v>
       </c>
       <c r="I33" s="15">
-        <f>I$9/I15</f>
+        <f t="shared" si="0"/>
         <v>5.8299628024520214</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
+      <c r="A34" s="20">
         <v>8</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="20">
         <v>8</v>
       </c>
       <c r="C34" s="15">
-        <f>C$9/C16</f>
+        <f t="shared" si="0"/>
         <v>6.4031797958649568</v>
       </c>
       <c r="D34" s="15">
-        <f>D$9/D16</f>
+        <f t="shared" si="0"/>
         <v>7.5220132939821882</v>
       </c>
       <c r="E34" s="15">
-        <f>E$9/E16</f>
+        <f t="shared" si="0"/>
         <v>7.6374621554150961</v>
       </c>
       <c r="F34" s="15">
-        <f>F$9/F16</f>
+        <f t="shared" si="0"/>
         <v>7.7482775288056418</v>
       </c>
       <c r="G34" s="15">
-        <f>G$9/G16</f>
+        <f t="shared" si="0"/>
         <v>7.7587294711829342</v>
       </c>
       <c r="H34" s="15">
-        <f>H$9/H16</f>
+        <f t="shared" si="0"/>
         <v>7.6867305526609462</v>
       </c>
       <c r="I34" s="15">
-        <f>I$9/I16</f>
+        <f t="shared" si="0"/>
         <v>7.8293540440270082</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="22">
+      <c r="A35" s="20">
         <v>10</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="20">
         <v>10</v>
       </c>
       <c r="C35" s="15">
-        <f>C$9/C17</f>
+        <f t="shared" si="0"/>
         <v>7.6804790381566761</v>
       </c>
       <c r="D35" s="15">
-        <f>D$9/D17</f>
+        <f t="shared" si="0"/>
         <v>9.1471380455039597</v>
       </c>
       <c r="E35" s="15">
-        <f>E$9/E17</f>
+        <f t="shared" si="0"/>
         <v>9.5228751677049424</v>
       </c>
       <c r="F35" s="15">
-        <f>F$9/F17</f>
+        <f t="shared" si="0"/>
         <v>9.5803465632135865</v>
       </c>
       <c r="G35" s="15">
-        <f>G$9/G17</f>
+        <f t="shared" si="0"/>
         <v>9.5686196014973977</v>
       </c>
       <c r="H35" s="15">
-        <f>H$9/H17</f>
+        <f t="shared" si="0"/>
         <v>9.7291235628800994</v>
       </c>
       <c r="I35" s="15">
-        <f>I$9/I17</f>
+        <f t="shared" si="0"/>
         <v>9.6199514177590526</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="22">
+      <c r="A36" s="20">
         <v>12</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="20">
         <v>12</v>
       </c>
       <c r="C36" s="15">
-        <f>C$9/C18</f>
+        <f t="shared" si="0"/>
         <v>8.4352870194794001</v>
       </c>
       <c r="D36" s="15">
-        <f>D$9/D18</f>
+        <f t="shared" si="0"/>
         <v>11.020605716858507</v>
       </c>
       <c r="E36" s="15">
-        <f>E$9/E18</f>
+        <f t="shared" si="0"/>
         <v>11.124254588515392</v>
       </c>
       <c r="F36" s="15">
-        <f>F$9/F18</f>
+        <f t="shared" si="0"/>
         <v>11.222164445757342</v>
       </c>
       <c r="G36" s="15">
-        <f>G$9/G18</f>
+        <f t="shared" si="0"/>
         <v>11.540043251369962</v>
       </c>
       <c r="H36" s="15">
-        <f>H$9/H18</f>
+        <f t="shared" si="0"/>
         <v>11.600035071220377</v>
       </c>
       <c r="I36" s="15">
-        <f>I$9/I18</f>
+        <f t="shared" si="0"/>
         <v>11.539010092579629</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="22">
+      <c r="A37" s="20">
         <v>14</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="20">
         <v>14</v>
       </c>
       <c r="C37" s="15">
-        <f>C$9/C19</f>
+        <f t="shared" si="0"/>
         <v>9.5561262352068113</v>
       </c>
       <c r="D37" s="15">
-        <f>D$9/D19</f>
+        <f t="shared" si="0"/>
         <v>12.925976092338713</v>
       </c>
       <c r="E37" s="15">
-        <f>E$9/E19</f>
+        <f t="shared" si="0"/>
         <v>12.804618849409824</v>
       </c>
       <c r="F37" s="15">
-        <f>F$9/F19</f>
+        <f t="shared" si="0"/>
         <v>11.30833570178182</v>
       </c>
       <c r="G37" s="15">
-        <f>G$9/G19</f>
+        <f t="shared" si="0"/>
         <v>9.945230972714505</v>
       </c>
       <c r="H37" s="15">
-        <f>H$9/H19</f>
+        <f t="shared" si="0"/>
         <v>8.8907204835482627</v>
       </c>
       <c r="I37" s="15">
-        <f>I$9/I19</f>
+        <f t="shared" si="0"/>
         <v>8.7077610618557753</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="22">
+      <c r="A38" s="20">
         <v>16</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="20">
         <v>16</v>
       </c>
       <c r="C38" s="15">
-        <f>C$9/C20</f>
+        <f t="shared" si="0"/>
         <v>10.402444727891156</v>
       </c>
       <c r="D38" s="15">
-        <f>D$9/D20</f>
+        <f t="shared" si="0"/>
         <v>14.536146599362175</v>
       </c>
       <c r="E38" s="15">
-        <f>E$9/E20</f>
+        <f t="shared" si="0"/>
         <v>14.312313069220778</v>
       </c>
       <c r="F38" s="15">
-        <f>F$9/F20</f>
+        <f t="shared" si="0"/>
         <v>9.006215163921782</v>
       </c>
       <c r="G38" s="15">
-        <f>G$9/G20</f>
+        <f t="shared" si="0"/>
         <v>9.094134371551263</v>
       </c>
       <c r="H38" s="15">
-        <f>H$9/H20</f>
+        <f t="shared" si="0"/>
         <v>9.1444006329181988</v>
       </c>
       <c r="I38" s="15">
-        <f>I$9/I20</f>
+        <f t="shared" si="0"/>
         <v>9.5605774607877123</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="22">
+      <c r="A39" s="20">
         <v>18</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="20">
         <v>18</v>
       </c>
       <c r="C39" s="15">
-        <f>C$9/C21</f>
+        <f t="shared" si="0"/>
         <v>10.355773300601033</v>
       </c>
       <c r="D39" s="15">
-        <f>D$9/D21</f>
+        <f t="shared" si="0"/>
         <v>15.728724802530284</v>
       </c>
       <c r="E39" s="15">
-        <f>E$9/E21</f>
+        <f t="shared" si="0"/>
         <v>15.230327020258102</v>
       </c>
       <c r="F39" s="15">
-        <f>F$9/F21</f>
+        <f t="shared" si="0"/>
         <v>10.105552814486641</v>
       </c>
       <c r="G39" s="15">
-        <f>G$9/G21</f>
+        <f t="shared" si="0"/>
         <v>10.234297522190547</v>
       </c>
       <c r="H39" s="15">
-        <f>H$9/H21</f>
+        <f t="shared" si="0"/>
         <v>10.27309643923512</v>
       </c>
       <c r="I39" s="15">
-        <f>I$9/I21</f>
+        <f t="shared" si="0"/>
         <v>10.285614785587194</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="22">
+      <c r="A40" s="20">
         <v>20</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="20">
         <v>20</v>
       </c>
       <c r="C40" s="15">
-        <f>C$9/C22</f>
+        <f t="shared" si="0"/>
         <v>10.778928123003723</v>
       </c>
       <c r="D40" s="15">
-        <f>D$9/D22</f>
+        <f t="shared" si="0"/>
         <v>17.640447387509653</v>
       </c>
       <c r="E40" s="15">
-        <f>E$9/E22</f>
+        <f t="shared" si="0"/>
         <v>11.655330787423502</v>
       </c>
       <c r="F40" s="15">
-        <f>F$9/F22</f>
+        <f t="shared" si="0"/>
         <v>11.063439296212017</v>
       </c>
       <c r="G40" s="15">
-        <f>G$9/G22</f>
+        <f t="shared" si="0"/>
         <v>11.277337474195022</v>
       </c>
       <c r="H40" s="15">
-        <f>H$9/H22</f>
+        <f t="shared" si="0"/>
         <v>11.381109279869438</v>
       </c>
       <c r="I40" s="15">
-        <f>I$9/I22</f>
+        <f t="shared" si="0"/>
         <v>11.405658341485871</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="22">
+      <c r="A41" s="20">
         <v>22</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="20">
         <v>22</v>
       </c>
       <c r="C41" s="15">
-        <f>C$9/C23</f>
+        <f t="shared" si="0"/>
         <v>8.1567401776933206</v>
       </c>
       <c r="D41" s="15">
-        <f>D$9/D23</f>
+        <f t="shared" si="0"/>
         <v>18.185014906940172</v>
       </c>
       <c r="E41" s="15">
-        <f>E$9/E23</f>
+        <f t="shared" si="0"/>
         <v>11.948831187282117</v>
       </c>
       <c r="F41" s="15">
-        <f>F$9/F23</f>
+        <f t="shared" si="0"/>
         <v>11.991283374850337</v>
       </c>
       <c r="G41" s="15">
-        <f>G$9/G23</f>
+        <f t="shared" si="0"/>
         <v>12.259503451631577</v>
       </c>
       <c r="H41" s="15">
-        <f>H$9/H23</f>
+        <f t="shared" si="0"/>
         <v>12.459767088375358</v>
       </c>
       <c r="I41" s="15">
-        <f>I$9/I23</f>
+        <f t="shared" si="0"/>
         <v>12.504292748224282</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="22">
+      <c r="A42" s="20">
         <v>24</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="20">
         <v>24</v>
       </c>
       <c r="C42" s="15">
-        <f>C$9/C24</f>
+        <f t="shared" si="0"/>
         <v>7.7905303211220964</v>
       </c>
       <c r="D42" s="15">
-        <f>D$9/D24</f>
+        <f t="shared" si="0"/>
         <v>16.866597461172589</v>
       </c>
       <c r="E42" s="15">
-        <f>E$9/E24</f>
+        <f t="shared" si="0"/>
         <v>13.118103991194769</v>
       </c>
       <c r="F42" s="15">
-        <f>F$9/F24</f>
+        <f t="shared" si="0"/>
         <v>13.191433850006039</v>
       </c>
       <c r="G42" s="15">
-        <f>G$9/G24</f>
+        <f t="shared" si="0"/>
         <v>13.445314636776164</v>
       </c>
       <c r="H42" s="15">
-        <f>H$9/H24</f>
+        <f t="shared" si="0"/>
         <v>13.581513966797905</v>
       </c>
       <c r="I42" s="15">
-        <f>I$9/I24</f>
+        <f t="shared" si="0"/>
         <v>13.625991857869238</v>
       </c>
     </row>

--- a/docs/perf_analysis.xlsx
+++ b/docs/perf_analysis.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmirando/Documents/uni/aca/image-segmentation/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8220FBDF-AF69-2243-ADB0-4A0AB3B03280}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D78BDDB-35E5-6646-BF6A-9CE53C5C4A43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" xr2:uid="{0E7B3D4C-F3D6-5C42-B910-87D6E1AF7D42}"/>
   </bookViews>
   <sheets>
-    <sheet name="AVAILABLE PARALLELISM" sheetId="1" r:id="rId1"/>
-    <sheet name="LOCAL " sheetId="2" r:id="rId2"/>
-    <sheet name="CLOUD" sheetId="3" r:id="rId3"/>
+    <sheet name="SERIAL" sheetId="4" r:id="rId1"/>
+    <sheet name="PARALLELISM" sheetId="1" r:id="rId2"/>
+    <sheet name="LOCAL " sheetId="2" r:id="rId3"/>
+    <sheet name="CLOUD" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>STUDY OF THE AVAILABLE PARALLELISM</t>
   </si>
@@ -123,6 +124,21 @@
   <si>
     <t xml:space="preserve">the call tree of the kmeans_seg function and reports the percentage of the total time that was spent in each of its children.  </t>
   </si>
+  <si>
+    <t>SERIAL ALGORITHM ANALYSIS</t>
+  </si>
+  <si>
+    <t>Clusters</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Execution Time</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,6 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,6 +273,897 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SERIAL!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SERIAL!$A$7:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SERIAL!$G$7:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25099100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0194380000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1974109999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.492391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.549969999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.656898999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156.77709400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8D9-F649-B743-2D72E31EFAFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="165802095"/>
+        <c:axId val="162185151"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="165802095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t> c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>lusters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43460032806675297"/>
+              <c:y val="0.94010499672555736"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162185151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="162185151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t> Time (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5605543104495257E-2"/>
+              <c:y val="0.33062286884087116"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165802095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SERIAL!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SERIAL!$A$7:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SERIAL!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>174744732.579146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77400160.544761002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41742696.647409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27286728.058819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11611661.20091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7148229.3579909997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4321454.0436190004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8D9-F649-B743-2D72E31EFAFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="165802095"/>
+        <c:axId val="162185151"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="165802095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t> c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>lusters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43460032806675297"/>
+              <c:y val="0.94010499672555736"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162185151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="162185151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="180000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Sum of Squared Errors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5605543104495257E-2"/>
+              <c:y val="0.33062286884087116"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165802095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
@@ -274,7 +1182,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AVAILABLE PARALLELISM'!$C$22</c:f>
+              <c:f>PARALLELISM!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -299,7 +1207,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$A$24:$A$56</c:f>
+              <c:f>PARALLELISM!$A$24:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -407,7 +1315,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$C$24:$C$56</c:f>
+              <c:f>PARALLELISM!$C$24:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="33"/>
@@ -525,7 +1433,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AVAILABLE PARALLELISM'!$D$22</c:f>
+              <c:f>PARALLELISM!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -550,7 +1458,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$A$24:$A$56</c:f>
+              <c:f>PARALLELISM!$A$24:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -658,7 +1566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$D$24:$D$56</c:f>
+              <c:f>PARALLELISM!$D$24:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="33"/>
@@ -776,7 +1684,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AVAILABLE PARALLELISM'!$E$22</c:f>
+              <c:f>PARALLELISM!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -801,7 +1709,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$A$24:$A$56</c:f>
+              <c:f>PARALLELISM!$A$24:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -909,7 +1817,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$E$24:$E$56</c:f>
+              <c:f>PARALLELISM!$E$24:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1027,7 +1935,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AVAILABLE PARALLELISM'!$F$22</c:f>
+              <c:f>PARALLELISM!$F$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1052,7 +1960,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$A$24:$A$56</c:f>
+              <c:f>PARALLELISM!$A$24:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1160,7 +2068,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$F$24:$F$56</c:f>
+              <c:f>PARALLELISM!$F$24:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1278,7 +2186,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AVAILABLE PARALLELISM'!$G$22</c:f>
+              <c:f>PARALLELISM!$G$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1303,7 +2211,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$A$24:$A$56</c:f>
+              <c:f>PARALLELISM!$A$24:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1411,7 +2319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$G$24:$G$56</c:f>
+              <c:f>PARALLELISM!$G$24:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1529,7 +2437,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AVAILABLE PARALLELISM'!$H$22</c:f>
+              <c:f>PARALLELISM!$H$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1554,7 +2462,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$A$24:$A$56</c:f>
+              <c:f>PARALLELISM!$A$24:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1662,7 +2570,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$H$24:$H$56</c:f>
+              <c:f>PARALLELISM!$H$24:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1780,7 +2688,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AVAILABLE PARALLELISM'!$I$22</c:f>
+              <c:f>PARALLELISM!$I$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1805,7 +2713,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$A$24:$A$56</c:f>
+              <c:f>PARALLELISM!$A$24:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1913,7 +2821,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$I$24:$I$56</c:f>
+              <c:f>PARALLELISM!$I$24:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="33"/>
@@ -2031,7 +2939,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AVAILABLE PARALLELISM'!$B$22</c:f>
+              <c:f>PARALLELISM!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2054,7 +2962,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$A$24:$A$56</c:f>
+              <c:f>PARALLELISM!$A$24:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -2162,7 +3070,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AVAILABLE PARALLELISM'!$B$24:$B$56</c:f>
+              <c:f>PARALLELISM!$B$24:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -2612,7 +3520,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3499,7 +4407,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4615,18 +5523,98 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
 </cs:colorStyle>
@@ -6180,7 +7168,1116 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274686</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D01D881-57AC-894D-842F-BB5E3EAD268A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>782686</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6036BB-71AD-764F-8BCD-08D3CC775640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -6346,7 +8443,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6387,7 +8484,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6726,11 +8823,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65890369-59A4-F544-8923-1D9BFC1C84D1}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="E7" s="23">
+        <v>174744732.579146</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.25099100000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>59</v>
+      </c>
+      <c r="E8" s="23">
+        <v>77400160.544761002</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2.0194380000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>82</v>
+      </c>
+      <c r="E9" s="23">
+        <v>41742696.647409</v>
+      </c>
+      <c r="G9" s="15">
+        <v>5.1974109999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>111</v>
+      </c>
+      <c r="E10" s="23">
+        <v>27286728.058819</v>
+      </c>
+      <c r="G10" s="15">
+        <v>13.492391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>132</v>
+      </c>
+      <c r="E11" s="23">
+        <v>11611661.20091</v>
+      </c>
+      <c r="G11" s="15">
+        <v>31.549969999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>128</v>
+      </c>
+      <c r="C12">
+        <v>144</v>
+      </c>
+      <c r="E12" s="23">
+        <v>7148229.3579909997</v>
+      </c>
+      <c r="G12" s="15">
+        <v>66.656898999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>256</v>
+      </c>
+      <c r="C13">
+        <v>172</v>
+      </c>
+      <c r="E13" s="23">
+        <v>4321454.0436190004</v>
+      </c>
+      <c r="G13" s="15">
+        <v>156.77709400000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF22805F-A6DC-D642-B1E0-D0E301BFF292}">
   <dimension ref="A1:AA119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6754,17 +9024,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -6775,17 +9045,17 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -6797,17 +9067,17 @@
       <c r="R3" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -6818,25 +9088,25 @@
       <c r="Q5" s="22"/>
     </row>
     <row r="7" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -6849,17 +9119,17 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K9" s="6"/>
@@ -7113,17 +9383,17 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
@@ -8948,7 +11218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4B22C9-9FA5-1D48-B23D-8F177FB5A8B5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -8970,17 +11240,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -8991,17 +11261,17 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -9012,17 +11282,17 @@
       <c r="Q3" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -9063,13 +11333,13 @@
       <c r="I7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -9284,29 +11554,29 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
@@ -9555,7 +11825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FF5D23-7BBA-B740-A309-7EF4EBC058F7}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
@@ -9577,17 +11847,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -9598,17 +11868,17 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -9619,17 +11889,17 @@
       <c r="Q3" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -9669,13 +11939,13 @@
       <c r="I7" s="18">
         <v>256</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -9953,13 +12223,13 @@
       <c r="I18" s="15">
         <v>20.886236</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
@@ -10146,17 +12416,17 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">

--- a/docs/perf_analysis.xlsx
+++ b/docs/perf_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmirando/Documents/uni/aca/image-segmentation/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D78BDDB-35E5-6646-BF6A-9CE53C5C4A43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCB9DC3-5D5D-1F42-A75F-BAE770C27EFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" xr2:uid="{0E7B3D4C-F3D6-5C42-B910-87D6E1AF7D42}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" activeTab="3" xr2:uid="{0E7B3D4C-F3D6-5C42-B910-87D6E1AF7D42}"/>
   </bookViews>
   <sheets>
     <sheet name="SERIAL" sheetId="4" r:id="rId1"/>
@@ -8826,7 +8826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65890369-59A4-F544-8923-1D9BFC1C84D1}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="182" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="182" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -8999,8 +8999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF22805F-A6DC-D642-B1E0-D0E301BFF292}">
   <dimension ref="A1:AA119"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:I22"/>
+    <sheetView topLeftCell="A20" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11222,8 +11222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4B22C9-9FA5-1D48-B23D-8F177FB5A8B5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A10" zoomScale="73" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11829,8 +11829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FF5D23-7BBA-B740-A309-7EF4EBC058F7}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/docs/perf_analysis.xlsx
+++ b/docs/perf_analysis.xlsx
@@ -8,16 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmirando/Documents/uni/aca/image-segmentation/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCB9DC3-5D5D-1F42-A75F-BAE770C27EFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FBE1B8-C7E7-E941-99D7-821AA0276758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" activeTab="3" xr2:uid="{0E7B3D4C-F3D6-5C42-B910-87D6E1AF7D42}"/>
+    <workbookView xWindow="0" yWindow="1100" windowWidth="28800" windowHeight="16540" activeTab="4" xr2:uid="{0E7B3D4C-F3D6-5C42-B910-87D6E1AF7D42}"/>
   </bookViews>
   <sheets>
     <sheet name="SERIAL" sheetId="4" r:id="rId1"/>
     <sheet name="PARALLELISM" sheetId="1" r:id="rId2"/>
     <sheet name="LOCAL " sheetId="2" r:id="rId3"/>
-    <sheet name="CLOUD" sheetId="3" r:id="rId4"/>
+    <sheet name="NO RED" sheetId="5" r:id="rId4"/>
+    <sheet name="CLOUD" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">CLOUD!$A$82:$A$93</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">CLOUD!$C$28</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">CLOUD!$G$82:$G$93</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">CLOUD!$H$28</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">CLOUD!$H$82:$H$93</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">CLOUD!$I$28</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">CLOUD!$I$82:$I$93</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">CLOUD!$C$82:$C$93</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">CLOUD!$D$28</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">CLOUD!$D$82:$D$93</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">CLOUD!$E$28</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">CLOUD!$E$82:$E$93</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">CLOUD!$F$28</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">CLOUD!$F$82:$F$93</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">CLOUD!$G$28</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t>STUDY OF THE AVAILABLE PARALLELISM</t>
   </si>
@@ -139,6 +157,30 @@
   <si>
     <t>Execution Time</t>
   </si>
+  <si>
+    <t>EXECUTION TIMES (in seconds WITH REDUCTION)</t>
+  </si>
+  <si>
+    <t>EXECUTION TIMES (in seconds NO REDUCTION)</t>
+  </si>
+  <si>
+    <t>SPEEDUP (NO REDUCTION)</t>
+  </si>
+  <si>
+    <t>REDUCTION CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>SPEEDUP (WITH REDUCTION)</t>
+  </si>
+  <si>
+    <t>compute_sse</t>
+  </si>
+  <si>
+    <t>EFFICIENCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Linear speedup</t>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +192,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +214,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,11 +240,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,12 +309,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2943,7 +3021,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>  Linear speed-up</c:v>
+                  <c:v>  Linear speedup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3222,14 +3300,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1000" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
                   <a:t>Number</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1000" b="1" baseline="0">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
                   <a:t> of cores</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
+                <a:endParaRPr lang="en-US" sz="1000" b="1">
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3237,8 +3321,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.44645157376200234"/>
-              <c:y val="0.94830219489341183"/>
+              <c:x val="0.41745609096116221"/>
+              <c:y val="0.94522199942508833"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3299,7 +3383,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3358,8 +3442,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Speed-up</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3368,8 +3454,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.2038984099332318E-2"/>
-              <c:y val="0.44688860002535152"/>
+              <c:x val="1.203897735362601E-2"/>
+              <c:y val="0.41421360473158431"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3424,7 +3510,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3467,7 +3553,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -3604,13 +3690,13 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>1.6124944504344518</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>1.9115221232284501</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>2.06236362014001</c:v>
                 </c:pt>
               </c:numCache>
@@ -3687,13 +3773,13 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>1.7526721046009288</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>1.9289026834975611</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>2.0980302764232035</c:v>
                 </c:pt>
               </c:numCache>
@@ -3770,13 +3856,13 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>1.7969474693497847</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>1.9430291121365615</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>2.1201109587172264</c:v>
                 </c:pt>
               </c:numCache>
@@ -3853,13 +3939,13 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>1.8192629449357207</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>1.9553675244678614</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>2.1481088235338253</c:v>
                 </c:pt>
               </c:numCache>
@@ -3936,13 +4022,13 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>1.8470419390675834</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>1.966174867928963</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>2.1978621038413384</c:v>
                 </c:pt>
               </c:numCache>
@@ -4019,13 +4105,13 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>1.8570452467624747</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>1.9833765154827403</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>2.2071564200095337</c:v>
                 </c:pt>
               </c:numCache>
@@ -4102,13 +4188,13 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.000">
                   <c:v>1.8576124769216718</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>2.0004870498052774</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
                   <c:v>2.2101099693070592</c:v>
                 </c:pt>
               </c:numCache>
@@ -4130,7 +4216,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>  Linear speed-up</c:v>
+                  <c:v>  Linear speedup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4221,6 +4307,80 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t> Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42715797946661799"/>
+              <c:y val="0.93321947951888751"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4250,7 +4410,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -4287,6 +4447,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.6440070469594793E-3"/>
+              <c:y val="0.42600668033826933"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4310,7 +4535,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -4354,7 +4579,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -4457,10 +4682,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CLOUD!$A$30:$A$36</c:f>
+              <c:f>CLOUD!$A$30:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4481,21 +4706,39 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CLOUD!$C$30:$C$36</c:f>
+              <c:f>CLOUD!$C$30:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0049865400295834</c:v>
+                  <c:v>1.9647349803458647</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.6161292944819281</c:v>
@@ -4511,6 +4754,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8.4352870194794001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5561262352068113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.402444727891156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.355773300601033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.778928123003723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1567401776933206</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7905303211220964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4552,10 +4813,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CLOUD!$A$30:$A$36</c:f>
+              <c:f>CLOUD!$A$30:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4576,16 +4837,34 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CLOUD!$D$30:$D$36</c:f>
+              <c:f>CLOUD!$D$30:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4606,6 +4885,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11.020605716858507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.925976092338713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.536146599362175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.728724802530284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.640447387509653</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.185014906940172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.866597461172589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4647,10 +4944,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CLOUD!$A$30:$A$36</c:f>
+              <c:f>CLOUD!$A$30:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4671,16 +4968,34 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CLOUD!$E$30:$E$36</c:f>
+              <c:f>CLOUD!$E$30:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4701,6 +5016,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11.124254588515392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.804618849409824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.312313069220778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.230327020258102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.655330787423502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.948831187282117</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.118103991194769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4742,10 +5075,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CLOUD!$A$30:$A$36</c:f>
+              <c:f>CLOUD!$A$30:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4766,16 +5099,34 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CLOUD!$F$30:$F$36</c:f>
+              <c:f>CLOUD!$F$30:$F$42</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4796,6 +5147,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11.222164445757342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.30833570178182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.006215163921782</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.105552814486641</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.063439296212017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.991283374850337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.191433850006039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4837,10 +5206,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CLOUD!$A$30:$A$36</c:f>
+              <c:f>CLOUD!$A$30:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4861,16 +5230,34 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CLOUD!$G$30:$G$36</c:f>
+              <c:f>CLOUD!$G$30:$G$42</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4891,6 +5278,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11.540043251369962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.945230972714505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.094134371551263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.234297522190547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.277337474195022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.259503451631577</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.445314636776164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4932,10 +5337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CLOUD!$A$30:$A$36</c:f>
+              <c:f>CLOUD!$A$30:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4956,16 +5361,34 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CLOUD!$H$30:$H$36</c:f>
+              <c:f>CLOUD!$H$30:$H$42</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4986,6 +5409,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11.600035071220377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8907204835482627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1444006329181988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.27309643923512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.381109279869438</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.459767088375358</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.581513966797905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5027,10 +5468,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CLOUD!$A$30:$A$36</c:f>
+              <c:f>CLOUD!$A$30:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5051,16 +5492,34 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CLOUD!$I$30:$I$36</c:f>
+              <c:f>CLOUD!$I$30:$I$42</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5081,6 +5540,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11.539010092579629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7077610618557753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5605774607877123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.285614785587194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.405658341485871</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.504292748224282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.625991857869238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5097,11 +5574,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>CLOUD!$A$28</c:f>
+              <c:f>CLOUD!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Number of cores</c:v>
+                  <c:v>  Linear speedup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5120,10 +5597,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CLOUD!$A$30:$A$36</c:f>
+              <c:f>CLOUD!$A$30:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5144,16 +5621,34 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CLOUD!$A$30:$A$36</c:f>
+              <c:f>CLOUD!$B$30:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5174,6 +5669,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,14 +5737,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
                   <a:t>Number</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> of cores</a:t>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t> of vCPUs</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5239,8 +5758,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.44645157376200234"/>
-              <c:y val="0.94830219489341183"/>
+              <c:x val="0.44771594930382613"/>
+              <c:y val="0.95452950376520884"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5301,7 +5820,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -5321,7 +5840,7 @@
         <c:axId val="9345967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12"/>
+          <c:max val="24"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5360,8 +5879,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Speed-up</a:t>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5426,7 +5947,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -5469,7 +5990,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -5510,6 +6031,1233 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CLOUD!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  K = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="47000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CLOUD!$A$82:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CLOUD!$C$82:$C$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.98236749017293234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90403232362048203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8574645330417473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8003974744831196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76804790381566757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70294058495661671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68258044537191509</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65015279549319727</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57532073892227964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53894640615018619</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37076091716787823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32460543004675402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-476E-6847-9ED4-F8236FDF4C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CLOUD!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  K = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CLOUD!$A$82:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CLOUD!$D$82:$D$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.99064907965141347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97301398745083956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95619366078567458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94025166174777353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91471380455039597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91838380973820888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92328400659562238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90850916246013591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87381804458501577</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88202236937548262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82659158667909871</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70277489421552453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-476E-6847-9ED4-F8236FDF4C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CLOUD!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  K = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="82000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CLOUD!$A$82:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CLOUD!$E$82:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9816257287584822</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97416142452274346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9634248083257092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95468276942688701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95228751677049428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92702121570961593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91461563210070174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89451956682629863</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84612927890322787</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58276653937117506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5431286903310053</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54658766629978206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-476E-6847-9ED4-F8236FDF4C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CLOUD!$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  K = 32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CLOUD!$A$82:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CLOUD!$F$82:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.98947367482120152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98263580426090147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97195293941171812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96853469110070523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95803465632135865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93518037047977842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80773826441298713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56288844774511138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56141960080481335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55317196481060082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54505833522046987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54964307708358495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-476E-6847-9ED4-F8236FDF4C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CLOUD!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  K = 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="83000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CLOUD!$A$82:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CLOUD!$G$82:$G$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.98699884249638692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95098254961820128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93704628920232647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96984118389786678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95686196014973979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9616702709474968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71037364090817889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56838339822195394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5685720845661415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56386687370975108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55725015689234436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5602214431990068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-476E-6847-9ED4-F8236FDF4C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CLOUD!$H$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  K = 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CLOUD!$A$82:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CLOUD!$H$82:$H$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9873302102538446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98515724733574817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.978408882285703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96084131908261827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97291235628800998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96666958926836477</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63505146311059024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57152503955738743</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57072757995750667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56905546399347195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56635304947160714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56589641528324608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-476E-6847-9ED4-F8236FDF4C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CLOUD!$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  K = 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="48000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CLOUD!$A$82:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CLOUD!$I$82:$I$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.99554155618552675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9847568483418685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97166046707533693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97866925550337602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96199514177590528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96158417438163568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6219829329896982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59753609129923202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57142304364373298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57028291707429357</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56837694310110376</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56774966074455158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-476E-6847-9ED4-F8236FDF4C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2104263360"/>
+        <c:axId val="9345967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2104263360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of vCPUs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44771594930382613"/>
+              <c:y val="0.95452950376520884"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9345967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="9345967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2038984099332318E-2"/>
+              <c:y val="0.44688860002535152"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104263360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5620,6 +7368,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8200,6 +9954,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8207,13 +10477,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>274686</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47193</xdr:rowOff>
+      <xdr:rowOff>47192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:colOff>367686</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>180792</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8407,15 +10677,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>326521</xdr:colOff>
+      <xdr:colOff>326520</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>1415</xdr:rowOff>
+      <xdr:rowOff>1414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>656167</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>137585</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>407130</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>202982</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8426,7 +10696,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8450,13 +10722,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>4232</xdr:rowOff>
+      <xdr:rowOff>4231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>486832</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>296351</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>42631</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8467,7 +10739,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8489,15 +10763,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>473364</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1207142</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>738909</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>191586</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>555853</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171044</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8519,6 +10793,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106475</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>117122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>356886</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D850A1F5-1A31-6548-AECA-6E34E50A2F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8826,11 +11138,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65890369-59A4-F544-8923-1D9BFC1C84D1}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
@@ -8843,33 +11155,33 @@
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -8887,7 +11199,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8901,7 +11213,7 @@
         <v>0.25099100000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -8915,7 +11227,7 @@
         <v>2.0194380000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -8929,7 +11241,7 @@
         <v>5.1974109999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -8943,7 +11255,7 @@
         <v>13.492391</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>64</v>
       </c>
@@ -8957,7 +11269,7 @@
         <v>31.549969999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>128</v>
       </c>
@@ -8971,7 +11283,7 @@
         <v>66.656898999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>256</v>
       </c>
@@ -8999,11 +11311,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF22805F-A6DC-D642-B1E0-D0E301BFF292}">
   <dimension ref="A1:AA119"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A47" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -9023,18 +11335,18 @@
     <col min="17" max="17" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -9044,18 +11356,18 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:27">
+      <c r="A3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -9066,18 +11378,18 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:27" ht="16" customHeight="1">
+      <c r="A5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -9087,26 +11399,26 @@
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="7" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:27" ht="16" customHeight="1">
+      <c r="A7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -9118,20 +11430,20 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:27">
+      <c r="A8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:27" ht="16" customHeight="1">
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -9140,7 +11452,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -9166,7 +11478,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -9175,7 +11487,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -9208,7 +11520,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -9241,7 +11553,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -9274,18 +11586,18 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3">
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -9307,15 +11619,18 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -9330,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -9339,40 +11654,40 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="4">
-        <f>SUM(C13, C15)</f>
+        <f>SUM(C13, C16)</f>
         <v>0.81100000000000005</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:I18" si="0">SUM(D13, D15)</f>
+        <f>SUM(D13, D16)</f>
         <v>0.877</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E13, E16)</f>
         <v>0.92700000000000005</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(F13, F16)</f>
         <v>0.96399999999999997</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(G13, G16)</f>
         <v>0.98099999999999998</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(H13, H16)</f>
         <v>0.99099999999999999</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I13, I16)</f>
         <v>0.995</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -9382,25 +11697,25 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:17">
+      <c r="A20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -9424,7 +11739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>0</v>
       </c>
@@ -9453,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>1</v>
       </c>
@@ -9482,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="10">
         <v>2</v>
       </c>
@@ -9490,35 +11805,35 @@
         <v>2</v>
       </c>
       <c r="C26" s="15">
-        <f t="shared" ref="C26:I35" si="1">1/((1-C$18)+C$18/$B26)</f>
+        <f t="shared" ref="C26:I35" si="0">1/((1-C$18)+C$18/$B26)</f>
         <v>1.6820857863751051</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7809439002671417</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8639328984156571</v>
       </c>
       <c r="F26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9305019305019304</v>
       </c>
       <c r="G26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9627085377821392</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9821605550049557</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9900497512437814</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9526,35 +11841,35 @@
         <v>3</v>
       </c>
       <c r="C27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1770682148040641</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.407704654895666</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6178010471204192</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7985074626865671</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8901734104046239</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9469548133595285</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9702970297029703</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -9562,35 +11877,35 @@
         <v>4</v>
       </c>
       <c r="C28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5526483726866629</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9218407596785974</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2813781788351113</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.6101083032490973</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.7842951750236522</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8948393378773121</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.9408866995073888</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>5</v>
       </c>
@@ -9598,35 +11913,35 @@
         <v>5</v>
       </c>
       <c r="C29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8473804100227795</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3512064343163539</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8699690402476787</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.37062937062937</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.6468401486988844</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.8262548262548259</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.901960784313725</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="10">
         <v>6</v>
       </c>
@@ -9634,35 +11949,35 @@
         <v>6</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.0848329048843195</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.7151702786377707</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.3956043956043969</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.0847457627118642</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4794520547945202</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.741626794258373</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.8536585365853657</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>7</v>
       </c>
@@ -9670,35 +11985,35 @@
         <v>7</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2802249297094663</v>
       </c>
       <c r="D31" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0276179516685851</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.8678720445062602</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7565789473684204</v>
       </c>
       <c r="G31" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2836624775583472</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.6413662239089177</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.7961165048543686</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="10">
         <v>8</v>
       </c>
@@ -9706,35 +12021,35 @@
         <v>8</v>
       </c>
       <c r="C32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.4438226431338794</v>
       </c>
       <c r="D32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.2987641053197203</v>
       </c>
       <c r="E32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.2945069490403718</v>
       </c>
       <c r="F32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3897763578274747</v>
       </c>
       <c r="G32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.0609002647837595</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5258701787394156</v>
       </c>
       <c r="I32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.7294685990338152</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>9</v>
       </c>
@@ -9742,35 +12057,35 @@
         <v>9</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5828025477707008</v>
       </c>
       <c r="D33" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.536290322580645</v>
       </c>
       <c r="E33" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6818181818181834</v>
       </c>
       <c r="F33" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.9875776397515521</v>
       </c>
       <c r="G33" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.8125</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3955223880597014</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.6538461538461533</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -9778,35 +12093,35 @@
         <v>10</v>
       </c>
       <c r="C34" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.702332469455758</v>
       </c>
       <c r="D34" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.7460844803037494</v>
       </c>
       <c r="E34" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0350030175015101</v>
       </c>
       <c r="F34" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5528700906344399</v>
       </c>
       <c r="G34" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.5397096498719041</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.250693802035153</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.5693779904306204</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>11</v>
       </c>
@@ -9814,35 +12129,35 @@
         <v>11</v>
       </c>
       <c r="C35" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8062283737024227</v>
       </c>
       <c r="D35" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.9327354260089686</v>
       </c>
       <c r="E35" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3583815028901753</v>
       </c>
       <c r="F35" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.088235294117645</v>
       </c>
       <c r="G35" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.2436974789915958</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.091743119266054</v>
       </c>
       <c r="I35" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.476190476190476</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -9850,35 +12165,35 @@
         <v>12</v>
       </c>
       <c r="C36" s="15">
-        <f t="shared" ref="C36:I45" si="2">1/((1-C$18)+C$18/$B36)</f>
+        <f t="shared" ref="C36:I45" si="1">1/((1-C$18)+C$18/$B36)</f>
         <v>3.8973692757388774</v>
       </c>
       <c r="D36" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0998725031874201</v>
       </c>
       <c r="E36" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.6555740432612343</v>
       </c>
       <c r="F36" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.5959885386819472</v>
       </c>
       <c r="G36" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9255583126550846</v>
       </c>
       <c r="H36" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.91901728844404</v>
       </c>
       <c r="I36" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.374407582938389</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>13</v>
       </c>
@@ -9886,35 +12201,35 @@
         <v>13</v>
       </c>
       <c r="C37" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.9779681762545911</v>
       </c>
       <c r="D37" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.2504038772213244</v>
       </c>
       <c r="E37" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.9296375266524546</v>
       </c>
       <c r="F37" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.0782122905027904</v>
       </c>
       <c r="G37" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.586319218241041</v>
       </c>
       <c r="H37" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.732851985559567</v>
       </c>
       <c r="I37" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.264150943396226</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="10">
         <v>14</v>
       </c>
@@ -9922,35 +12237,35 @@
         <v>14</v>
       </c>
       <c r="C38" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.0497541220711604</v>
       </c>
       <c r="D38" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.3866871873797617</v>
       </c>
       <c r="E38" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.1831708568496682</v>
       </c>
       <c r="F38" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.5367847411444124</v>
       </c>
       <c r="G38" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.22694466720128</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.533572068039391</v>
       </c>
       <c r="I38" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.145539906103284</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>15</v>
       </c>
@@ -9958,35 +12273,35 @@
         <v>15</v>
       </c>
       <c r="C39" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.1140976412506864</v>
       </c>
       <c r="D39" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5106539309331373</v>
       </c>
       <c r="E39" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.4183976261127622</v>
       </c>
       <c r="F39" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9734042553191458</v>
       </c>
       <c r="G39" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.848341232227487</v>
       </c>
       <c r="H39" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.321492007104794</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14.018691588785048</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="10">
         <v>16</v>
       </c>
@@ -9994,35 +12309,35 @@
         <v>16</v>
       </c>
       <c r="C40" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.1720990873533257</v>
       </c>
       <c r="D40" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6239015817223201</v>
       </c>
       <c r="E40" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.6372315035799545</v>
       </c>
       <c r="F40" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.389610389610386</v>
       </c>
       <c r="G40" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.451361867704279</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14.096916299559469</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14.883720930232556</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>17</v>
       </c>
@@ -10030,35 +12345,35 @@
         <v>17</v>
       </c>
       <c r="C41" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2246520874751496</v>
       </c>
       <c r="D41" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.7277628032345014</v>
       </c>
       <c r="E41" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.8413284132841357</v>
       </c>
       <c r="F41" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.786802030456849</v>
       </c>
       <c r="G41" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.036809815950917</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14.860139860139856</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.740740740740739</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="10">
         <v>18</v>
       </c>
@@ -10066,35 +12381,35 @@
         <v>18</v>
       </c>
       <c r="C42" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2724899121765967</v>
       </c>
       <c r="D42" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.8233581365253961</v>
       </c>
       <c r="E42" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.0321285140562271</v>
       </c>
       <c r="F42" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.16625310173697</v>
       </c>
       <c r="G42" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.605442176870746</v>
       </c>
       <c r="H42" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.611448395490024</v>
       </c>
       <c r="I42" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.589861751152071</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>19</v>
       </c>
@@ -10102,35 +12417,35 @@
         <v>19</v>
       </c>
       <c r="C43" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3162199000454349</v>
       </c>
       <c r="D43" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.9116365899191035</v>
       </c>
       <c r="E43" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.2108902333621465</v>
       </c>
       <c r="F43" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.529126213592228</v>
       </c>
       <c r="G43" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14.157973174366614</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.351118760757313</v>
       </c>
       <c r="I43" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17.431192660550458</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="10">
         <v>20</v>
       </c>
@@ -10138,35 +12453,35 @@
         <v>20</v>
       </c>
       <c r="C44" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3563493792202141</v>
       </c>
       <c r="D44" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.9934072520227746</v>
       </c>
       <c r="E44" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.3787180561374139</v>
       </c>
       <c r="F44" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.876484560570068</v>
       </c>
       <c r="G44" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14.695077149155031</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17.079419299743808</v>
       </c>
       <c r="I44" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18.264840182648399</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>21</v>
       </c>
@@ -10174,35 +12489,35 @@
         <v>21</v>
       </c>
       <c r="C45" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3933054393305451</v>
       </c>
       <c r="D45" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0693641618497107</v>
       </c>
       <c r="E45" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.5365853658536608</v>
       </c>
       <c r="F45" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.20930232558139</v>
       </c>
       <c r="G45" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.217391304347824</v>
       </c>
       <c r="H45" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17.796610169491522</v>
       </c>
       <c r="I45" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19.09090909090909</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="10">
         <v>22</v>
       </c>
@@ -10210,35 +12525,35 @@
         <v>22</v>
       </c>
       <c r="C46" s="15">
-        <f t="shared" ref="C46:I56" si="3">1/((1-C$18)+C$18/$B46)</f>
+        <f t="shared" ref="C46:I56" si="2">1/((1-C$18)+C$18/$B46)</f>
         <v>4.4274501911853497</v>
       </c>
       <c r="D46" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1401060563773369</v>
       </c>
       <c r="E46" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.6853533359652619</v>
       </c>
       <c r="F46" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.528473804100225</v>
       </c>
       <c r="G46" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15.725518227305212</v>
       </c>
       <c r="H46" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18.502943650126152</v>
       </c>
       <c r="I46" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.909502262443436</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>23</v>
       </c>
@@ -10246,35 +12561,35 @@
         <v>23</v>
       </c>
       <c r="C47" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.4590926715781318</v>
       </c>
       <c r="D47" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.2061521856449007</v>
       </c>
       <c r="E47" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.8257866462010774</v>
       </c>
       <c r="F47" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.834821428571425</v>
       </c>
       <c r="G47" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16.220028208744708</v>
       </c>
       <c r="H47" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.198664440734557</v>
       </c>
       <c r="I47" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20.720720720720717</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="10">
         <v>24</v>
       </c>
@@ -10282,35 +12597,35 @@
         <v>24</v>
       </c>
       <c r="C48" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.4884982233027877</v>
       </c>
       <c r="D48" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.2679550796552626</v>
       </c>
       <c r="E48" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.9585666293393107</v>
       </c>
       <c r="F48" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13.129102844638947</v>
       </c>
       <c r="G48" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16.701461377870558</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.884009942004969</v>
       </c>
       <c r="I48" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21.524663677130043</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>25</v>
       </c>
@@ -10318,35 +12633,35 @@
         <v>25</v>
       </c>
       <c r="C49" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5158959537572265</v>
       </c>
       <c r="D49" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.3259109311740893</v>
       </c>
       <c r="E49" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.0843023255813993</v>
       </c>
       <c r="F49" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13.412017167381968</v>
       </c>
       <c r="G49" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17.170329670329668</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20.559210526315784</v>
       </c>
       <c r="I49" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.321428571428569</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="10">
         <v>26</v>
       </c>
@@ -10354,35 +12669,35 @@
         <v>26</v>
       </c>
       <c r="C50" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5414847161572061</v>
       </c>
       <c r="D50" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.3803680981595097</v>
       </c>
       <c r="E50" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.2035398230088532</v>
       </c>
       <c r="F50" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13.684210526315784</v>
       </c>
       <c r="G50" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17.627118644067792</v>
       </c>
       <c r="H50" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21.224489795918366</v>
       </c>
       <c r="I50" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23.111111111111107</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>27</v>
       </c>
@@ -10390,35 +12705,35 @@
         <v>27</v>
       </c>
       <c r="C51" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5654379438620234</v>
       </c>
       <c r="D51" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.4316341114816584</v>
       </c>
       <c r="E51" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.3167701863354075</v>
       </c>
       <c r="F51" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13.946280991735529</v>
       </c>
       <c r="G51" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18.0722891566265</v>
       </c>
       <c r="H51" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21.880064829821713</v>
       </c>
       <c r="I51" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23.89380530973451</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="10">
         <v>28</v>
       </c>
@@ -10426,35 +12741,35 @@
         <v>28</v>
       </c>
       <c r="C52" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5879075864329026</v>
       </c>
       <c r="D52" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.4799814857671842</v>
       </c>
       <c r="E52" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.4244362167620359</v>
       </c>
       <c r="F52" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14.198782961460441</v>
       </c>
       <c r="G52" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18.506278916060801</v>
       </c>
       <c r="H52" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.526146419951726</v>
       </c>
       <c r="I52" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24.669603524229071</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>29</v>
       </c>
@@ -10462,35 +12777,35 @@
         <v>29</v>
       </c>
       <c r="C53" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.6090273363000653</v>
       </c>
       <c r="D53" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.525652565256526</v>
       </c>
       <c r="E53" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.5269382391590067</v>
       </c>
       <c r="F53" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14.442231075697206</v>
       </c>
       <c r="G53" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18.929503916449082</v>
       </c>
       <c r="H53" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23.162939297124595</v>
       </c>
       <c r="I53" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25.438596491228068</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="10">
         <v>30</v>
       </c>
@@ -10498,35 +12813,35 @@
         <v>30</v>
       </c>
       <c r="C54" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.6289152908501787</v>
       </c>
       <c r="D54" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.5688635865995186</v>
       </c>
       <c r="E54" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.6246390760346525</v>
       </c>
       <c r="F54" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14.677103718199602</v>
       </c>
       <c r="G54" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.342359767891676</v>
       </c>
       <c r="H54" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23.790642347343375</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26.200873362445414</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>31</v>
       </c>
@@ -10534,35 +12849,35 @@
         <v>31</v>
       </c>
       <c r="C55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.6476761619190423</v>
       </c>
       <c r="D55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.6098081023454167</v>
       </c>
       <c r="E55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.7178683385579969</v>
       </c>
       <c r="F55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14.903846153846146</v>
       </c>
       <c r="G55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.745222929936297</v>
       </c>
       <c r="H55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24.409448818897634</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26.95652173913043</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="10">
         <v>32</v>
       </c>
@@ -10570,35 +12885,35 @@
         <v>32</v>
       </c>
       <c r="C56" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.6654031199883379</v>
       </c>
       <c r="D56" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.6486598794930405</v>
       </c>
       <c r="E56" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.8069261415874998</v>
       </c>
       <c r="F56" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15.122873345935721</v>
       </c>
       <c r="G56" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20.138451856513527</v>
       </c>
       <c r="H56" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25.019546520719306</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27.705627705627698</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -10607,41 +12922,41 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="9">
-        <f t="shared" ref="C58:I58" si="4">1/((1-C$18))</f>
+        <f t="shared" ref="C58:I58" si="3">1/((1-C$18))</f>
         <v>5.2910052910052929</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.1300813008130088</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13.69863013698631</v>
       </c>
       <c r="F58" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27.777777777777754</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>52.631578947368375</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>111.11111111111101</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>199.99999999999983</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="10"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -10651,7 +12966,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -10660,7 +12975,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="10"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -10670,7 +12985,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -10679,7 +12994,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="10"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -10689,7 +13004,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -10698,7 +13013,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="10"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -10708,7 +13023,7 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -10717,7 +13032,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="10"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -10727,7 +13042,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -10736,7 +13051,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="10"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -10746,7 +13061,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -10755,7 +13070,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="10"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -10765,7 +13080,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -10774,7 +13089,7 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="10"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -10784,7 +13099,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -10793,7 +13108,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="10"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -10803,7 +13118,7 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -10812,7 +13127,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="10"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -10822,7 +13137,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -10831,7 +13146,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="10"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -10841,7 +13156,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -10850,7 +13165,7 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="10"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -10860,7 +13175,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -10869,7 +13184,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="10"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -10879,7 +13194,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -10888,7 +13203,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="10"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -10898,7 +13213,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -10907,7 +13222,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="10"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -10917,7 +13232,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -10926,7 +13241,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" s="10"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -10936,7 +13251,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -10945,7 +13260,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" s="10"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -10955,7 +13270,7 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -10964,7 +13279,7 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="10"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -10974,7 +13289,7 @@
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -10983,7 +13298,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="10"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -10993,7 +13308,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -11002,7 +13317,7 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" s="10"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -11012,7 +13327,7 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -11021,7 +13336,7 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" s="10"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -11031,7 +13346,7 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -11040,7 +13355,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="10"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -11050,7 +13365,7 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -11059,7 +13374,7 @@
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" s="10"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -11069,7 +13384,7 @@
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -11078,7 +13393,7 @@
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" s="10"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -11088,7 +13403,7 @@
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -11097,7 +13412,7 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109" s="10"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -11107,7 +13422,7 @@
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -11116,7 +13431,7 @@
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111" s="10"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -11126,7 +13441,7 @@
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -11135,7 +13450,7 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113" s="10"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -11145,7 +13460,7 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -11154,7 +13469,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115" s="10"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -11164,7 +13479,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -11173,7 +13488,7 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" s="10"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -11183,7 +13498,7 @@
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -11192,7 +13507,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119" s="10"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -11220,13 +13535,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4B22C9-9FA5-1D48-B23D-8F177FB5A8B5}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="73" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -11239,18 +13554,18 @@
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -11260,18 +13575,18 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -11281,18 +13596,18 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+    <row r="5" spans="1:17">
+      <c r="A5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -11302,13 +13617,13 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
@@ -11333,15 +13648,15 @@
       <c r="I7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -11352,7 +13667,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -11385,7 +13700,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -11395,7 +13710,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
@@ -11415,7 +13730,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="B12" s="8"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -11432,7 +13747,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -11466,7 +13781,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="6">
         <v>3</v>
       </c>
@@ -11500,7 +13815,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="12">
         <v>4</v>
       </c>
@@ -11534,7 +13849,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="12"/>
       <c r="B16" s="5"/>
       <c r="C16" s="11"/>
@@ -11553,37 +13868,37 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
+      <c r="A17" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -11607,7 +13922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -11616,7 +13931,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="20">
         <v>0</v>
       </c>
@@ -11645,7 +13960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="20">
         <v>1</v>
       </c>
@@ -11681,38 +13996,38 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="20">
         <v>2</v>
       </c>
       <c r="B23" s="20">
         <v>2</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="30">
         <f t="shared" ref="C23:I25" si="0">C$9/C13</f>
         <v>1.6124944504344518</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="30">
         <f t="shared" si="0"/>
         <v>1.7526721046009288</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="30">
         <f t="shared" si="0"/>
         <v>1.7969474693497847</v>
       </c>
-      <c r="F23" s="16">
-        <f t="shared" si="0"/>
+      <c r="F23" s="30">
+        <f>F$9/F13</f>
         <v>1.8192629449357207</v>
       </c>
-      <c r="G23" s="16">
-        <f t="shared" si="0"/>
+      <c r="G23" s="30">
+        <f>G$9/G13</f>
         <v>1.8470419390675834</v>
       </c>
-      <c r="H23" s="16">
-        <f t="shared" si="0"/>
+      <c r="H23" s="30">
+        <f>H$9/H13</f>
         <v>1.8570452467624747</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="31">
         <f t="shared" si="0"/>
         <v>1.8576124769216718</v>
       </c>
@@ -11724,38 +14039,38 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="20">
         <v>3</v>
       </c>
       <c r="B24" s="20">
         <v>3</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="30">
         <f t="shared" si="0"/>
         <v>1.9115221232284501</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="30">
         <f t="shared" si="0"/>
         <v>1.9289026834975611</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="30">
         <f t="shared" si="0"/>
         <v>1.9430291121365615</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="30">
         <f t="shared" si="0"/>
         <v>1.9553675244678614</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="30">
         <f t="shared" si="0"/>
         <v>1.966174867928963</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="30">
         <f t="shared" si="0"/>
         <v>1.9833765154827403</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="30">
         <f t="shared" si="0"/>
         <v>2.0004870498052774</v>
       </c>
@@ -11767,38 +14082,38 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="20">
         <v>4</v>
       </c>
       <c r="B25" s="20">
         <v>4</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="30">
         <f t="shared" si="0"/>
         <v>2.06236362014001</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="30">
         <f t="shared" si="0"/>
         <v>2.0980302764232035</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="30">
         <f t="shared" si="0"/>
         <v>2.1201109587172264</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="30">
         <f t="shared" si="0"/>
         <v>2.1481088235338253</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="30">
         <f t="shared" si="0"/>
         <v>2.1978621038413384</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="30">
         <f t="shared" si="0"/>
         <v>2.2071564200095337</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="31">
         <f t="shared" si="0"/>
         <v>2.2101099693070592</v>
       </c>
@@ -11810,8 +14125,569 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="25">
+        <v>4</v>
+      </c>
+      <c r="D63" s="25">
+        <v>8</v>
+      </c>
+      <c r="E63" s="25">
+        <v>16</v>
+      </c>
+      <c r="F63" s="25">
+        <v>32</v>
+      </c>
+      <c r="G63" s="25">
+        <v>64</v>
+      </c>
+      <c r="H63" s="25">
+        <v>128</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="16">
+        <v>0.25641000000000003</v>
+      </c>
+      <c r="D65" s="16">
+        <v>1.8591690000000001</v>
+      </c>
+      <c r="E65" s="16">
+        <v>7.5552789999999996</v>
+      </c>
+      <c r="F65" s="16">
+        <v>12.882882</v>
+      </c>
+      <c r="G65" s="16">
+        <v>31.106493</v>
+      </c>
+      <c r="H65" s="16">
+        <v>152.09639799999999</v>
+      </c>
+      <c r="I65" s="16">
+        <v>241.92212499999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="B66" s="8"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="B68" s="8"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="25">
+        <v>2</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="16">
+        <v>0.16960500000000001</v>
+      </c>
+      <c r="D69" s="16">
+        <v>1.13662</v>
+      </c>
+      <c r="E69" s="16">
+        <v>4.3581370000000001</v>
+      </c>
+      <c r="F69" s="16">
+        <v>7.24777</v>
+      </c>
+      <c r="G69" s="16">
+        <v>16.943670999999998</v>
+      </c>
+      <c r="H69" s="16">
+        <v>82.250549000000007</v>
+      </c>
+      <c r="I69" s="16">
+        <v>130.22777400000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="25">
+        <v>3</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="16">
+        <v>0.14568999999999999</v>
+      </c>
+      <c r="D70" s="16">
+        <v>1.0494110000000001</v>
+      </c>
+      <c r="E70" s="16">
+        <v>4.0205770000000003</v>
+      </c>
+      <c r="F70" s="16">
+        <v>6.6856400000000002</v>
+      </c>
+      <c r="G70" s="16">
+        <v>15.904959</v>
+      </c>
+      <c r="H70" s="16">
+        <v>77.116341000000006</v>
+      </c>
+      <c r="I70" s="16">
+        <v>121.145858</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="25">
+        <v>4</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="16">
+        <v>0.13622699999999999</v>
+      </c>
+      <c r="D71" s="16">
+        <v>0.94189100000000003</v>
+      </c>
+      <c r="E71" s="16">
+        <v>3.685632</v>
+      </c>
+      <c r="F71" s="16">
+        <v>6.087923</v>
+      </c>
+      <c r="G71" s="16">
+        <v>14.253048</v>
+      </c>
+      <c r="H71" s="16">
+        <v>69.358486999999997</v>
+      </c>
+      <c r="I71" s="16">
+        <v>109.89859199999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="25"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="19">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="21">
+        <v>0</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="21">
+        <v>0</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0</v>
+      </c>
+      <c r="G77" s="21">
+        <v>0</v>
+      </c>
+      <c r="H77" s="21">
+        <v>0</v>
+      </c>
+      <c r="I77" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="19">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="15">
+        <v>1</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1</v>
+      </c>
+      <c r="E78" s="15">
+        <v>1</v>
+      </c>
+      <c r="F78" s="15">
+        <v>1</v>
+      </c>
+      <c r="G78" s="15">
+        <v>1</v>
+      </c>
+      <c r="H78" s="15">
+        <v>1</v>
+      </c>
+      <c r="I78" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="19">
+        <v>2</v>
+      </c>
+      <c r="B79" s="19">
+        <v>2</v>
+      </c>
+      <c r="C79" s="30">
+        <f t="shared" ref="C79:I81" si="1">C$9/C69</f>
+        <v>1.4990242032958936</v>
+      </c>
+      <c r="D79" s="30">
+        <f t="shared" si="1"/>
+        <v>1.6397573507416727</v>
+      </c>
+      <c r="E79" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7330102289120328</v>
+      </c>
+      <c r="F79" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7775699284055648</v>
+      </c>
+      <c r="G79" s="30">
+        <f t="shared" si="1"/>
+        <v>1.8306957801529551</v>
+      </c>
+      <c r="H79" s="30">
+        <f t="shared" si="1"/>
+        <v>1.8517069715850769</v>
+      </c>
+      <c r="I79" s="31">
+        <f t="shared" si="1"/>
+        <v>1.8540032865800193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="19">
+        <v>3</v>
+      </c>
+      <c r="B80" s="19">
+        <v>3</v>
+      </c>
+      <c r="C80" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7450888873635806</v>
+      </c>
+      <c r="D80" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7760257897048914</v>
+      </c>
+      <c r="E80" s="30">
+        <f t="shared" si="1"/>
+        <v>1.8785104725018322</v>
+      </c>
+      <c r="F80" s="30">
+        <f t="shared" si="1"/>
+        <v>1.9270283772383796</v>
+      </c>
+      <c r="G80" s="30">
+        <f t="shared" si="1"/>
+        <v>1.950253817064225</v>
+      </c>
+      <c r="H80" s="30">
+        <f t="shared" si="1"/>
+        <v>1.9749888677939216</v>
+      </c>
+      <c r="I80" s="30">
+        <f t="shared" si="1"/>
+        <v>1.9929919601543455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="19">
+        <v>4</v>
+      </c>
+      <c r="B81" s="19">
+        <v>4</v>
+      </c>
+      <c r="C81" s="30">
+        <f t="shared" si="1"/>
+        <v>1.8663113773334217</v>
+      </c>
+      <c r="D81" s="30">
+        <f t="shared" si="1"/>
+        <v>1.9787650588019206</v>
+      </c>
+      <c r="E81" s="30">
+        <f t="shared" si="1"/>
+        <v>2.0492268354518304</v>
+      </c>
+      <c r="F81" s="30">
+        <f t="shared" si="1"/>
+        <v>2.1162255173069702</v>
+      </c>
+      <c r="G81" s="30">
+        <f t="shared" si="1"/>
+        <v>2.1762858723270981</v>
+      </c>
+      <c r="H81" s="30">
+        <f t="shared" si="1"/>
+        <v>2.1958944260130702</v>
+      </c>
+      <c r="I81" s="31">
+        <f t="shared" si="1"/>
+        <v>2.196959183972075</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="19">
+        <v>2</v>
+      </c>
+      <c r="C88" s="32">
+        <f>(C23-C79)/C79</f>
+        <v>7.5696074078772074E-2</v>
+      </c>
+      <c r="D88" s="32">
+        <f t="shared" ref="D88:I88" si="2">(D23-D79)/D79</f>
+        <v>6.8860648075877828E-2</v>
+      </c>
+      <c r="E88" s="32">
+        <f t="shared" si="2"/>
+        <v>3.6893746713711567E-2</v>
+      </c>
+      <c r="F88" s="32">
+        <f t="shared" si="2"/>
+        <v>2.3455064053403217E-2</v>
+      </c>
+      <c r="G88" s="32">
+        <f t="shared" si="2"/>
+        <v>8.9289324265895177E-3</v>
+      </c>
+      <c r="H88" s="32">
+        <f t="shared" si="2"/>
+        <v>2.8828941400097516E-3</v>
+      </c>
+      <c r="I88" s="32">
+        <f t="shared" si="2"/>
+        <v>1.9467011562369413E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="19">
+        <v>3</v>
+      </c>
+      <c r="C89" s="32">
+        <f t="shared" ref="C89:I89" si="3">(C24-C80)/C80</f>
+        <v>9.5372354422765815E-2</v>
+      </c>
+      <c r="D89" s="32">
+        <f t="shared" si="3"/>
+        <v>8.6078082130818634E-2</v>
+      </c>
+      <c r="E89" s="32">
+        <f t="shared" si="3"/>
+        <v>3.4345637450081519E-2</v>
+      </c>
+      <c r="F89" s="32">
+        <f t="shared" si="3"/>
+        <v>1.4706139029511648E-2</v>
+      </c>
+      <c r="G89" s="32">
+        <f t="shared" si="3"/>
+        <v>8.1635788764687477E-3</v>
+      </c>
+      <c r="H89" s="32">
+        <f t="shared" si="3"/>
+        <v>4.2469341602860743E-3</v>
+      </c>
+      <c r="I89" s="32">
+        <f t="shared" si="3"/>
+        <v>3.7607224719317825E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="19">
+        <v>4</v>
+      </c>
+      <c r="C90" s="32">
+        <f t="shared" ref="C90:I90" si="4">(C25-C81)/C81</f>
+        <v>0.1050479813752767</v>
+      </c>
+      <c r="D90" s="32">
+        <f t="shared" si="4"/>
+        <v>6.0272550847190645E-2</v>
+      </c>
+      <c r="E90" s="32">
+        <f t="shared" si="4"/>
+        <v>3.4590667094093051E-2</v>
+      </c>
+      <c r="F90" s="32">
+        <f t="shared" si="4"/>
+        <v>1.5066119355478049E-2</v>
+      </c>
+      <c r="G90" s="32">
+        <f t="shared" si="4"/>
+        <v>9.9142450854440567E-3</v>
+      </c>
+      <c r="H90" s="32">
+        <f t="shared" si="4"/>
+        <v>5.1286591299888459E-3</v>
+      </c>
+      <c r="I90" s="32">
+        <f t="shared" si="4"/>
+        <v>5.9859033481030324E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A84:I84"/>
     <mergeCell ref="K18:Q18"/>
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="A1:I1"/>
@@ -11826,14 +14702,492 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FF5D23-7BBA-B740-A309-7EF4EBC058F7}">
-  <dimension ref="A1:Q42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DDCDC0-7DF8-434E-A5F3-A56FB7D602D4}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="24">
+        <v>4</v>
+      </c>
+      <c r="D7" s="24">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24">
+        <v>16</v>
+      </c>
+      <c r="F7" s="24">
+        <v>32</v>
+      </c>
+      <c r="G7" s="24">
+        <v>64</v>
+      </c>
+      <c r="H7" s="24">
+        <v>128</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.25641000000000003</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1.8591690000000001</v>
+      </c>
+      <c r="E9" s="16">
+        <v>7.5552789999999996</v>
+      </c>
+      <c r="F9" s="16">
+        <v>12.882882</v>
+      </c>
+      <c r="G9" s="16">
+        <v>31.106493</v>
+      </c>
+      <c r="H9" s="16">
+        <v>152.09639799999999</v>
+      </c>
+      <c r="I9" s="16">
+        <v>241.92212499999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="8"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="8"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="24">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="16">
+        <v>0.163605</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1.13662</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4.3581370000000001</v>
+      </c>
+      <c r="F13" s="16">
+        <v>7.24777</v>
+      </c>
+      <c r="G13" s="16">
+        <v>16.943670999999998</v>
+      </c>
+      <c r="H13" s="16">
+        <v>82.250549000000007</v>
+      </c>
+      <c r="I13" s="16">
+        <v>130.22777400000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="24">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="16">
+        <v>0.14568999999999999</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1.0534110000000001</v>
+      </c>
+      <c r="E14" s="16">
+        <v>4.0205770000000003</v>
+      </c>
+      <c r="F14" s="16">
+        <v>6.6856400000000002</v>
+      </c>
+      <c r="G14" s="16">
+        <v>15.904959</v>
+      </c>
+      <c r="H14" s="16">
+        <v>77.116341000000006</v>
+      </c>
+      <c r="I14" s="16">
+        <v>120.545858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="24">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="16">
+        <v>0.14022699999999999</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.94189100000000003</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3.685632</v>
+      </c>
+      <c r="F15" s="16">
+        <v>6.087923</v>
+      </c>
+      <c r="G15" s="16">
+        <v>14.253048</v>
+      </c>
+      <c r="H15" s="16">
+        <v>69.358486999999997</v>
+      </c>
+      <c r="I15" s="16">
+        <v>109.89859199999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="24"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="19">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="19">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="19">
+        <v>2</v>
+      </c>
+      <c r="B23" s="19">
+        <v>2</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" ref="C23:I25" si="0">C$9/C13</f>
+        <v>1.5672503896580179</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6356997061462935</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7336029133549495</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="0"/>
+        <v>1.777495974623919</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8358768297613901</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8491839853859211</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="0"/>
+        <v>1.8576845596700438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="19">
+        <v>3</v>
+      </c>
+      <c r="B24" s="19">
+        <v>3</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7599697988880503</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7649037270353165</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8791529176036175</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="0"/>
+        <v>1.9269482054074105</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="0"/>
+        <v>1.9557732277084148</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="0"/>
+        <v>1.9722979076509866</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="0"/>
+        <v>2.0068887393874619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="19">
+        <v>4</v>
+      </c>
+      <c r="B25" s="19">
+        <v>4</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8285351608463423</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="0"/>
+        <v>1.9738685261882745</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="0"/>
+        <v>2.0499276650517468</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="0"/>
+        <v>2.1161374741434806</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="0"/>
+        <v>2.1824449759798745</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="0"/>
+        <v>2.1929024778178912</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="0"/>
+        <v>2.2013214236630074</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A17:I17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FF5D23-7BBA-B740-A309-7EF4EBC058F7}">
+  <dimension ref="A1:Q93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C67" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -11846,18 +15200,18 @@
     <col min="10" max="17" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -11867,18 +15221,18 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -11888,18 +15242,18 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -11909,12 +15263,12 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
@@ -11939,15 +15293,15 @@
       <c r="I7" s="18">
         <v>256</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -11958,7 +15312,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -11991,7 +15345,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -12001,7 +15355,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
@@ -12021,7 +15375,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="16"/>
@@ -12039,12 +15393,12 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="14">
         <v>2</v>
       </c>
       <c r="C13" s="15">
-        <v>0.244057</v>
+        <v>0.249057</v>
       </c>
       <c r="D13" s="15">
         <v>1.9025399999999999</v>
@@ -12072,7 +15426,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="14">
         <v>4</v>
       </c>
@@ -12105,7 +15459,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="14">
         <v>6</v>
       </c>
@@ -12138,7 +15492,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="14">
         <v>8</v>
       </c>
@@ -12172,7 +15526,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="14">
         <v>10</v>
       </c>
@@ -12198,7 +15552,7 @@
         <v>25.052776000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="14">
         <v>12</v>
       </c>
@@ -12223,15 +15577,15 @@
       <c r="I18" s="15">
         <v>20.886236</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="14">
         <v>14</v>
       </c>
@@ -12257,7 +15611,7 @@
         <v>27.677205000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="14">
         <v>16</v>
       </c>
@@ -12290,7 +15644,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="14">
         <v>18</v>
       </c>
@@ -12316,7 +15670,7 @@
         <v>23.431412999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -12349,7 +15703,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -12382,7 +15736,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="14">
         <v>24</v>
       </c>
@@ -12415,25 +15769,25 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:17">
+      <c r="A26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
@@ -12457,10 +15811,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="20">
         <v>0</v>
       </c>
@@ -12489,440 +15843,903 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="20">
         <v>2</v>
       </c>
       <c r="B31" s="20">
         <v>2</v>
       </c>
-      <c r="C31" s="15">
-        <f t="shared" ref="C31:I42" si="0">C$9/C13</f>
-        <v>2.0049865400295834</v>
-      </c>
-      <c r="D31" s="15">
-        <f t="shared" si="0"/>
+      <c r="C31" s="30">
+        <f>C$9/C13</f>
+        <v>1.9647349803458647</v>
+      </c>
+      <c r="D31" s="30">
+        <f t="shared" ref="C31:I42" si="0">D$9/D13</f>
         <v>1.9812981593028269</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="30">
         <f t="shared" si="0"/>
         <v>1.9632514575169644</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="30">
         <f t="shared" si="0"/>
         <v>1.978947349642403</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="30">
         <f t="shared" si="0"/>
         <v>1.9739976849927738</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="30">
         <f t="shared" si="0"/>
         <v>1.9746604205076892</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="30">
         <f t="shared" si="0"/>
         <v>1.9910831123710535</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="20">
         <v>4</v>
       </c>
       <c r="B32" s="20">
         <v>4</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="30">
         <f t="shared" si="0"/>
         <v>3.6161292944819281</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="30">
         <f t="shared" si="0"/>
         <v>3.8920559498033582</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="30">
         <f t="shared" si="0"/>
         <v>3.8966456980909738</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="30">
         <f t="shared" si="0"/>
         <v>3.9305432170436059</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="30">
         <f t="shared" si="0"/>
         <v>3.8039301984728051</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="30">
         <f t="shared" si="0"/>
         <v>3.9406289893429927</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="30">
         <f t="shared" si="0"/>
         <v>3.939027393367474</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="20">
         <v>6</v>
       </c>
       <c r="B33" s="20">
         <v>6</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="30">
         <f t="shared" si="0"/>
         <v>5.1447871982504836</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="30">
         <f t="shared" si="0"/>
         <v>5.7371619647140477</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="30">
         <f t="shared" si="0"/>
         <v>5.780548849954255</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="30">
         <f t="shared" si="0"/>
         <v>5.8317176364703087</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="30">
         <f t="shared" si="0"/>
         <v>5.6222777352139586</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="30">
         <f t="shared" si="0"/>
         <v>5.8704532937142178</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="30">
         <f t="shared" si="0"/>
         <v>5.8299628024520214</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="20">
         <v>8</v>
       </c>
       <c r="B34" s="20">
         <v>8</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="30">
         <f t="shared" si="0"/>
         <v>6.4031797958649568</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="30">
         <f t="shared" si="0"/>
         <v>7.5220132939821882</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="30">
         <f t="shared" si="0"/>
         <v>7.6374621554150961</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="30">
         <f t="shared" si="0"/>
         <v>7.7482775288056418</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="30">
         <f t="shared" si="0"/>
         <v>7.7587294711829342</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="30">
         <f t="shared" si="0"/>
         <v>7.6867305526609462</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="30">
         <f t="shared" si="0"/>
         <v>7.8293540440270082</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="20">
         <v>10</v>
       </c>
       <c r="B35" s="20">
         <v>10</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="30">
         <f t="shared" si="0"/>
         <v>7.6804790381566761</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="30">
         <f t="shared" si="0"/>
         <v>9.1471380455039597</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="30">
         <f t="shared" si="0"/>
         <v>9.5228751677049424</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="30">
         <f t="shared" si="0"/>
         <v>9.5803465632135865</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="30">
         <f t="shared" si="0"/>
         <v>9.5686196014973977</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="30">
         <f t="shared" si="0"/>
         <v>9.7291235628800994</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="30">
         <f t="shared" si="0"/>
         <v>9.6199514177590526</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="20">
         <v>12</v>
       </c>
       <c r="B36" s="20">
         <v>12</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="30">
         <f t="shared" si="0"/>
         <v>8.4352870194794001</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="30">
         <f t="shared" si="0"/>
         <v>11.020605716858507</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="30">
         <f t="shared" si="0"/>
         <v>11.124254588515392</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="30">
         <f t="shared" si="0"/>
         <v>11.222164445757342</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="30">
         <f t="shared" si="0"/>
         <v>11.540043251369962</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="30">
         <f t="shared" si="0"/>
         <v>11.600035071220377</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="30">
         <f t="shared" si="0"/>
         <v>11.539010092579629</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="20">
         <v>14</v>
       </c>
       <c r="B37" s="20">
         <v>14</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="30">
         <f t="shared" si="0"/>
         <v>9.5561262352068113</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="30">
         <f t="shared" si="0"/>
         <v>12.925976092338713</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="30">
         <f t="shared" si="0"/>
         <v>12.804618849409824</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="30">
         <f t="shared" si="0"/>
         <v>11.30833570178182</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="30">
         <f t="shared" si="0"/>
         <v>9.945230972714505</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="30">
         <f t="shared" si="0"/>
         <v>8.8907204835482627</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="30">
         <f t="shared" si="0"/>
         <v>8.7077610618557753</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="20">
         <v>16</v>
       </c>
       <c r="B38" s="20">
         <v>16</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="30">
         <f t="shared" si="0"/>
         <v>10.402444727891156</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="30">
         <f t="shared" si="0"/>
         <v>14.536146599362175</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="30">
         <f t="shared" si="0"/>
         <v>14.312313069220778</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="30">
         <f t="shared" si="0"/>
         <v>9.006215163921782</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="30">
         <f t="shared" si="0"/>
         <v>9.094134371551263</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="30">
         <f t="shared" si="0"/>
         <v>9.1444006329181988</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="30">
         <f t="shared" si="0"/>
         <v>9.5605774607877123</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="20">
         <v>18</v>
       </c>
       <c r="B39" s="20">
         <v>18</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="30">
         <f t="shared" si="0"/>
         <v>10.355773300601033</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="30">
         <f t="shared" si="0"/>
         <v>15.728724802530284</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="30">
         <f t="shared" si="0"/>
         <v>15.230327020258102</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="30">
         <f t="shared" si="0"/>
         <v>10.105552814486641</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="30">
         <f t="shared" si="0"/>
         <v>10.234297522190547</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="30">
         <f t="shared" si="0"/>
         <v>10.27309643923512</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="30">
         <f t="shared" si="0"/>
         <v>10.285614785587194</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="20">
         <v>20</v>
       </c>
       <c r="B40" s="20">
         <v>20</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="30">
         <f t="shared" si="0"/>
         <v>10.778928123003723</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="30">
         <f t="shared" si="0"/>
         <v>17.640447387509653</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="30">
         <f t="shared" si="0"/>
         <v>11.655330787423502</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="30">
         <f t="shared" si="0"/>
         <v>11.063439296212017</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="30">
         <f t="shared" si="0"/>
         <v>11.277337474195022</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="30">
         <f t="shared" si="0"/>
         <v>11.381109279869438</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="30">
         <f t="shared" si="0"/>
         <v>11.405658341485871</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="20">
         <v>22</v>
       </c>
       <c r="B41" s="20">
         <v>22</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="30">
         <f t="shared" si="0"/>
         <v>8.1567401776933206</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="30">
         <f t="shared" si="0"/>
         <v>18.185014906940172</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="30">
         <f t="shared" si="0"/>
         <v>11.948831187282117</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="30">
         <f t="shared" si="0"/>
         <v>11.991283374850337</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="30">
         <f t="shared" si="0"/>
         <v>12.259503451631577</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="30">
         <f t="shared" si="0"/>
         <v>12.459767088375358</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="30">
         <f t="shared" si="0"/>
         <v>12.504292748224282</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="20">
         <v>24</v>
       </c>
       <c r="B42" s="20">
         <v>24</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="30">
         <f t="shared" si="0"/>
         <v>7.7905303211220964</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="30">
         <f t="shared" si="0"/>
         <v>16.866597461172589</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="30">
         <f t="shared" si="0"/>
         <v>13.118103991194769</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="30">
         <f t="shared" si="0"/>
         <v>13.191433850006039</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="30">
         <f t="shared" si="0"/>
         <v>13.445314636776164</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="30">
         <f t="shared" si="0"/>
         <v>13.581513966797905</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="30">
         <f t="shared" si="0"/>
         <v>13.625991857869238</v>
       </c>
     </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="25"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="20">
+        <v>2</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="30">
+        <f>C31/$A82</f>
+        <v>0.98236749017293234</v>
+      </c>
+      <c r="D82" s="30">
+        <f t="shared" ref="D82:I82" si="1">D31/$A82</f>
+        <v>0.99064907965141347</v>
+      </c>
+      <c r="E82" s="30">
+        <f t="shared" si="1"/>
+        <v>0.9816257287584822</v>
+      </c>
+      <c r="F82" s="30">
+        <f t="shared" si="1"/>
+        <v>0.98947367482120152</v>
+      </c>
+      <c r="G82" s="30">
+        <f t="shared" si="1"/>
+        <v>0.98699884249638692</v>
+      </c>
+      <c r="H82" s="30">
+        <f t="shared" si="1"/>
+        <v>0.9873302102538446</v>
+      </c>
+      <c r="I82" s="30">
+        <f t="shared" si="1"/>
+        <v>0.99554155618552675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="20">
+        <v>4</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="30">
+        <f t="shared" ref="C83:I93" si="2">C32/$A83</f>
+        <v>0.90403232362048203</v>
+      </c>
+      <c r="D83" s="30">
+        <f t="shared" si="2"/>
+        <v>0.97301398745083956</v>
+      </c>
+      <c r="E83" s="30">
+        <f t="shared" si="2"/>
+        <v>0.97416142452274346</v>
+      </c>
+      <c r="F83" s="30">
+        <f t="shared" si="2"/>
+        <v>0.98263580426090147</v>
+      </c>
+      <c r="G83" s="30">
+        <f t="shared" si="2"/>
+        <v>0.95098254961820128</v>
+      </c>
+      <c r="H83" s="30">
+        <f t="shared" si="2"/>
+        <v>0.98515724733574817</v>
+      </c>
+      <c r="I83" s="30">
+        <f t="shared" si="2"/>
+        <v>0.9847568483418685</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="20">
+        <v>6</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="30">
+        <f t="shared" si="2"/>
+        <v>0.8574645330417473</v>
+      </c>
+      <c r="D84" s="30">
+        <f t="shared" si="2"/>
+        <v>0.95619366078567458</v>
+      </c>
+      <c r="E84" s="30">
+        <f t="shared" si="2"/>
+        <v>0.9634248083257092</v>
+      </c>
+      <c r="F84" s="30">
+        <f t="shared" si="2"/>
+        <v>0.97195293941171812</v>
+      </c>
+      <c r="G84" s="30">
+        <f t="shared" si="2"/>
+        <v>0.93704628920232647</v>
+      </c>
+      <c r="H84" s="30">
+        <f t="shared" si="2"/>
+        <v>0.978408882285703</v>
+      </c>
+      <c r="I84" s="30">
+        <f t="shared" si="2"/>
+        <v>0.97166046707533693</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="20">
+        <v>8</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="30">
+        <f t="shared" si="2"/>
+        <v>0.8003974744831196</v>
+      </c>
+      <c r="D85" s="30">
+        <f t="shared" si="2"/>
+        <v>0.94025166174777353</v>
+      </c>
+      <c r="E85" s="30">
+        <f t="shared" si="2"/>
+        <v>0.95468276942688701</v>
+      </c>
+      <c r="F85" s="30">
+        <f t="shared" si="2"/>
+        <v>0.96853469110070523</v>
+      </c>
+      <c r="G85" s="30">
+        <f t="shared" si="2"/>
+        <v>0.96984118389786678</v>
+      </c>
+      <c r="H85" s="30">
+        <f t="shared" si="2"/>
+        <v>0.96084131908261827</v>
+      </c>
+      <c r="I85" s="30">
+        <f t="shared" si="2"/>
+        <v>0.97866925550337602</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="20">
+        <v>10</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="30">
+        <f t="shared" si="2"/>
+        <v>0.76804790381566757</v>
+      </c>
+      <c r="D86" s="30">
+        <f t="shared" si="2"/>
+        <v>0.91471380455039597</v>
+      </c>
+      <c r="E86" s="30">
+        <f t="shared" si="2"/>
+        <v>0.95228751677049428</v>
+      </c>
+      <c r="F86" s="30">
+        <f t="shared" si="2"/>
+        <v>0.95803465632135865</v>
+      </c>
+      <c r="G86" s="30">
+        <f t="shared" si="2"/>
+        <v>0.95686196014973979</v>
+      </c>
+      <c r="H86" s="30">
+        <f t="shared" si="2"/>
+        <v>0.97291235628800998</v>
+      </c>
+      <c r="I86" s="30">
+        <f t="shared" si="2"/>
+        <v>0.96199514177590528</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="20">
+        <v>12</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="30">
+        <f t="shared" si="2"/>
+        <v>0.70294058495661671</v>
+      </c>
+      <c r="D87" s="30">
+        <f t="shared" si="2"/>
+        <v>0.91838380973820888</v>
+      </c>
+      <c r="E87" s="30">
+        <f t="shared" si="2"/>
+        <v>0.92702121570961593</v>
+      </c>
+      <c r="F87" s="30">
+        <f t="shared" si="2"/>
+        <v>0.93518037047977842</v>
+      </c>
+      <c r="G87" s="30">
+        <f t="shared" si="2"/>
+        <v>0.9616702709474968</v>
+      </c>
+      <c r="H87" s="30">
+        <f t="shared" si="2"/>
+        <v>0.96666958926836477</v>
+      </c>
+      <c r="I87" s="30">
+        <f t="shared" si="2"/>
+        <v>0.96158417438163568</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="20">
+        <v>14</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="30">
+        <f t="shared" si="2"/>
+        <v>0.68258044537191509</v>
+      </c>
+      <c r="D88" s="30">
+        <f t="shared" si="2"/>
+        <v>0.92328400659562238</v>
+      </c>
+      <c r="E88" s="30">
+        <f t="shared" si="2"/>
+        <v>0.91461563210070174</v>
+      </c>
+      <c r="F88" s="30">
+        <f t="shared" si="2"/>
+        <v>0.80773826441298713</v>
+      </c>
+      <c r="G88" s="30">
+        <f t="shared" si="2"/>
+        <v>0.71037364090817889</v>
+      </c>
+      <c r="H88" s="30">
+        <f t="shared" si="2"/>
+        <v>0.63505146311059024</v>
+      </c>
+      <c r="I88" s="30">
+        <f t="shared" si="2"/>
+        <v>0.6219829329896982</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="20">
+        <v>16</v>
+      </c>
+      <c r="B89" s="20"/>
+      <c r="C89" s="30">
+        <f t="shared" si="2"/>
+        <v>0.65015279549319727</v>
+      </c>
+      <c r="D89" s="30">
+        <f t="shared" si="2"/>
+        <v>0.90850916246013591</v>
+      </c>
+      <c r="E89" s="30">
+        <f t="shared" si="2"/>
+        <v>0.89451956682629863</v>
+      </c>
+      <c r="F89" s="30">
+        <f t="shared" si="2"/>
+        <v>0.56288844774511138</v>
+      </c>
+      <c r="G89" s="30">
+        <f t="shared" si="2"/>
+        <v>0.56838339822195394</v>
+      </c>
+      <c r="H89" s="30">
+        <f t="shared" si="2"/>
+        <v>0.57152503955738743</v>
+      </c>
+      <c r="I89" s="30">
+        <f t="shared" si="2"/>
+        <v>0.59753609129923202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="20">
+        <v>18</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="30">
+        <f t="shared" si="2"/>
+        <v>0.57532073892227964</v>
+      </c>
+      <c r="D90" s="30">
+        <f t="shared" si="2"/>
+        <v>0.87381804458501577</v>
+      </c>
+      <c r="E90" s="30">
+        <f t="shared" si="2"/>
+        <v>0.84612927890322787</v>
+      </c>
+      <c r="F90" s="30">
+        <f t="shared" si="2"/>
+        <v>0.56141960080481335</v>
+      </c>
+      <c r="G90" s="30">
+        <f t="shared" si="2"/>
+        <v>0.5685720845661415</v>
+      </c>
+      <c r="H90" s="30">
+        <f t="shared" si="2"/>
+        <v>0.57072757995750667</v>
+      </c>
+      <c r="I90" s="30">
+        <f t="shared" si="2"/>
+        <v>0.57142304364373298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="20">
+        <v>20</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="30">
+        <f t="shared" si="2"/>
+        <v>0.53894640615018619</v>
+      </c>
+      <c r="D91" s="30">
+        <f t="shared" si="2"/>
+        <v>0.88202236937548262</v>
+      </c>
+      <c r="E91" s="30">
+        <f t="shared" si="2"/>
+        <v>0.58276653937117506</v>
+      </c>
+      <c r="F91" s="30">
+        <f t="shared" si="2"/>
+        <v>0.55317196481060082</v>
+      </c>
+      <c r="G91" s="30">
+        <f t="shared" si="2"/>
+        <v>0.56386687370975108</v>
+      </c>
+      <c r="H91" s="30">
+        <f t="shared" si="2"/>
+        <v>0.56905546399347195</v>
+      </c>
+      <c r="I91" s="30">
+        <f t="shared" si="2"/>
+        <v>0.57028291707429357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="20">
+        <v>22</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="30">
+        <f t="shared" si="2"/>
+        <v>0.37076091716787823</v>
+      </c>
+      <c r="D92" s="30">
+        <f t="shared" si="2"/>
+        <v>0.82659158667909871</v>
+      </c>
+      <c r="E92" s="30">
+        <f t="shared" si="2"/>
+        <v>0.5431286903310053</v>
+      </c>
+      <c r="F92" s="30">
+        <f t="shared" si="2"/>
+        <v>0.54505833522046987</v>
+      </c>
+      <c r="G92" s="30">
+        <f t="shared" si="2"/>
+        <v>0.55725015689234436</v>
+      </c>
+      <c r="H92" s="30">
+        <f t="shared" si="2"/>
+        <v>0.56635304947160714</v>
+      </c>
+      <c r="I92" s="30">
+        <f t="shared" si="2"/>
+        <v>0.56837694310110376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="20">
+        <v>24</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="30">
+        <f t="shared" si="2"/>
+        <v>0.32460543004675402</v>
+      </c>
+      <c r="D93" s="30">
+        <f t="shared" si="2"/>
+        <v>0.70277489421552453</v>
+      </c>
+      <c r="E93" s="30">
+        <f t="shared" si="2"/>
+        <v>0.54658766629978206</v>
+      </c>
+      <c r="F93" s="30">
+        <f t="shared" si="2"/>
+        <v>0.54964307708358495</v>
+      </c>
+      <c r="G93" s="30">
+        <f t="shared" si="2"/>
+        <v>0.5602214431990068</v>
+      </c>
+      <c r="H93" s="30">
+        <f t="shared" si="2"/>
+        <v>0.56589641528324608</v>
+      </c>
+      <c r="I93" s="30">
+        <f t="shared" si="2"/>
+        <v>0.56774966074455158</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A77:I77"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="K18:Q18"/>
